--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Dropbox/SHEDS/lmg/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Projects/sheds/ice/ice-lmg/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B1B594-E101-3D45-BF71-AC269F29924D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B744B4-834E-B441-99AE-CC2440328BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="819">
   <si>
     <t>theme</t>
   </si>
@@ -716,21 +716,6 @@
     <t>Estimated Streamflow Quantiles</t>
   </si>
   <si>
-    <t>Basin boundaries were delineated for 1,320 USGS streamgages located on tributaries and streams flowing to the Gulf of Mexico. Basins ranged in size from less than 1 to approximately 67,500 square miles. Physical and climatic basin characteristics were calculated using these boundaries. Data presented here will be used as independent variables to estimate streamflow characteristics and provide a numerical foundation supporting the: (1) development of statistical models of streamflow characteristics; (2) evaluation of spatial and temporal trends in streamflow characteristics; and (3) development of network optimization analysis.</t>
-  </si>
-  <si>
-    <t>This dataset contains statistical descriptions of observed daily-mean streamflow for 956 sites in the southeast United States.  For each site, statistical descriptions are provided according to decade for up to six decades, beginning in 1950 (1950-59 calendar years) and ending with 2000 (2000 - 2009 calendar years) with no more than 7 missing values per year in total (continuous or noncontinuous).   There are 40 statistical descriptions including 28 flow-duration curve values,  8 L-moments, and 4 describing the minimum, maximum, median flow for days not equal to zero, and number of zero-flow days.  Site information is provided by decade - the number of rows per site varies from 1 to 6 depending on the number of decades with observed record available.  This information was used as the response variable(s) for statistical models for estimating the same characteristics at nearly 10,000 ungaged locations throughout the southeast United States. The dataset has been provided as a shapefile and a comma-delimited file. The comma-delimited file is an exact copy of the attribute table of the shapefile.</t>
-  </si>
-  <si>
-    <t>This study is based on contiguous direct normal irradiance information from the National Renewable Energy Laboratory. Specifically, these data represent both 12-month specific average and annual average daily total solar resource averaged over surface cells of 0.1 degrees in both latitude and longitude. Spacing is about 10 kilometers in size. Direct normal irradiance is the amount of solar radiation received per unit area. For more information on direct normal irradiance see Introduction to Micrometeorology (Arya, 2001) or Fundamentals of Atmospheric Physics (Salby, 1996). Following the metadata description by the National Renewable Energy Laboratory, these modeled data are based on hourly radiance images from geostationary weather satellites; daily snow cover data; and monthly averages of atmospheric water vapor, trace gases, and the amount of aerosols in the atmosphere to calculate the hourly total insolation (sun and sky) falling on a horizontal surface. Atmospheric water vapor, trace gases, and aerosols were derived from a variety of sources. It is important to note that, where possible, existing ground measurement stations were used by the National Renewable Energy Laboratory to validate the data. Modeled values are suggested to be accurate to approximately 15 percent of a true measured value within the grid cell. For this study, a simple overlay of the location of a streamgage onto the gridded solar radiation data was made to assign January through December direct normal irradiance values, and average annual values at each streamgage. No polygon representing whole or part of the watershed of the streamgage was intersected with the gridded solar radiation data.</t>
-  </si>
-  <si>
-    <t>This dataset provides numerical and categorical descriptions of 48 basin characteristics for 9,314 ungaged basins coinciding with 12-digit hydrologic unit code (HUC12) pour points that drain to the Gulf of Mexico. Characteristics are indexed by National Hydrography Dataset (NHD) version 2 COMID (integer that uniquely identifies each feature in the NHD) and HUC12 identifying number. The variables represent mutable and immutable basin characteristics and are organized by characteristic type: physical (5), hydrologic (6), categorical (12), climate (6), landscape alteration (7), and land cover (12). Mutable characteristics such as climate, land cover, and landscape alteration variables are reported in decadal increments (for example, average percent forest for the decade 1950-1959, 1960-1969, etc). The majority of basin characteristics in this dataset were calculated using divergence-routing methods and are often referred to as “network-accumulated”. This method uses a modified routing database to navigate the NHDPlus reach network to aggregate (accumulate) the values derived from the reach catchment scale (Schwarz, G.E., and Wieczorek, M.E., 2018, Database of modified routing for NHDPlus version 2.1 flowlines: ENHDPlusV2_us: U.S. Geological Survey data release, https://doi.org/10.5066/P9PA63SM ). In four instances, values are also provided for the entire catchment above a site and area designated using the “CAT_” prefix.</t>
-  </si>
-  <si>
-    <t>This page contains 15 estimated quantiles for 9,203 level-12 Hydrologic Unit Code in the Southeastern United States for the decades 1950-1959, 1960-1969, 1970-1979, 1980-1989, 1990-1999, and 2000-2009. A multi-output neural network was used to generate the estimated quantiles (Worland and others, 2019). The R scripts that generated the predictions are also included along with a README file. The 15 quantiles are associated with the following 15 non-exceedance probabilities (NEPs): 0.0003, 0.0050, 0.0500, 0.1000, 0.2000, 0.3000, 0.4000, 0.5000, 0.6000, 0.7000, 0.8000, 0.9000, 0.9500, 0.9950, and 0.9997. The quantiles were calculated using the Weibull plotting position (more details can be found in the accompanying manuscript). In addition to the median estimate of the quantiles, 68th, 95th, and 99.7th percentile intervals are also included in .csv file. The percentile intervals were estimated using Monte-Carlo dropout for 500 forward passes of the neural network. The intervals are represented in the .csv file as p0.0015, p0.0250, p0.1600, p0.5000, p0.8400, p0.975, and p0.9985 which indicates the 68th, 95th, and 99.7th percentile intervals. The median (p0.5000) and the mean estimate should be used if only a single realization of the estimated quantiles is needed. The neural network was trained using streamflow data at sites with records that contained only non-zero streamflow values. However, the model was used to make predictions for every HUC12 pour point. Some of these predictions are likely for sites that have streamflow values equal to zero.</t>
-  </si>
-  <si>
     <t>dims_decade</t>
   </si>
   <si>
@@ -2487,6 +2472,27 @@
   </si>
   <si>
     <t>The Primary Dataset for HUC12 Basins includes a combination of the key variables from the other HUC12 datasets. From the Basin Characteristics dataset, it includes basin area, baseflow index, hydro-geological classifications, annual average precipitation and air temperature, number of upstream dams, and land use composition. From the Streamflow Statistics dataset, it includes various metrics such as the mean, median, and lower/upper quartile streamflow at each gage. Together, these metrics can be used to better understand relationships between the basin characteristics and estimated streamflow statitistics at the pour points for all HUC12 basins in the region.</t>
+  </si>
+  <si>
+    <t>Physical and climatic basin characteristics for 957 USGS streamflow gages located on tributaries and streams flowing to the Gulf of Mexico. The variables represent mutable and immutable basin characteristics and are organized by characteristic type: physical (5), hydrologic (6), categorical (12), climate (6), landscape alteration (7), and land cover (12).  Mutable characteristics such as climate, land cover, and landscape alteration variables are reported in decadal increments (1950s, 1960s, ..., 2000s).</t>
+  </si>
+  <si>
+    <t>Trend analyses of daily streamflow records for 139 USGS streamflow gages located on tributaries and streams flowing to the Gulf of Mexico. The trends were assessed using the Mann-Kendall trend test as well as a new method known as a "Quantile-Kendall" plot. Each test was performed on various seasonal, monthly, and decile stratifications of the dataset. Data were analyzed based on water year using the Mann-Kendall trend test and by climate year using the Quantile-Kendall methodology to: (1) identify regions which are statistically similar for estimating streamflow characteristics; (2) identify trends related to changing streamflow and streamflow alteration over time; and (3) to identify possible correlations with estuary health in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>Monthly and annual average total solar radiation for 956 USGS streamflow gages located on tributaries and streams flowing to the Gulf of Mexico. For each gage, average solar radiation was extracted from a contiguous gridded surface created by the National Renewable Energy Laboratory. The radiation rates represent direct normal irradiance as the amount of solar radiation received per unit area at the location of each gage.</t>
+  </si>
+  <si>
+    <t>Summary statistics of observed daily-mean streamflow for 956 USGS streamflow gages located on tributaries and streams flowing to the Gulf of Mexico. The statistics include flow-duration curve quantiles, L-moments, the minimum, maximum, median flow for days not equal to zero, and the number of zero-flow days. Results were calculated at decadal increments from the 1950s (1950-1959) to the 2000s (2000-2009).</t>
+  </si>
+  <si>
+    <t>Estimated streamflow quantiles for 9,203 level-12 Hydrologic Unit Code (HUC12) basins that drain to the Gulf of Mexico. The estimated quantiles range from 0.03% to 99.97% and were estimated using a multi-output neural network that was trained using streamflow data at sites with records containing only non-zero streamflow values. Quantiles were estimated at decadal intervals from the 1950s (1950-1959) to the 2000s (2000-2009). See the dataset citation for more information about the methodology used to generate this dataset.</t>
+  </si>
+  <si>
+    <t>Monthly and annual average total solar radiation for 9,219 level-12 Hydrologic Unit Code (HUC12) basins that drain to the Gulf of Mexico. For each HUC12, the average solar radiation was extracted from a contiguous gridded surface created by the National Renewable Energy Laboratory. The radiation rates represent direct normal irradiance as the amount of solar radiation received per unit area at the location of each HUC12 pour point.</t>
+  </si>
+  <si>
+    <t>Physical and climatic basin characteristics for 9,314 level-12 Hydrologic Unit Code (HUC12) basins that drain to the Gulf of Mexico. The variables represent mutable and immutable basin characteristics and are organized by characteristic type: physical (5), hydrologic (6), categorical (12), climate (6), landscape alteration (7), and land cover (12).  Mutable characteristics such as climate, land cover, and landscape alteration variables are reported in decadal increments (1950s, 1960s, ..., 2000s).</t>
   </si>
 </sst>
 </file>
@@ -2887,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2915,16 +2921,16 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -2936,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -2956,16 +2962,16 @@
         <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -2980,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>218</v>
       </c>
@@ -2994,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>812</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -3016,16 +3022,16 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
@@ -3039,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>227</v>
+        <v>815</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -3061,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>218</v>
       </c>
@@ -3084,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>813</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -3108,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -3131,10 +3137,10 @@
         <v>216</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
@@ -3150,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="255" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>218</v>
       </c>
@@ -3164,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>228</v>
+        <v>814</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -3184,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3198,16 +3204,16 @@
         <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -3225,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="221" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -3239,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>229</v>
+        <v>818</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -3259,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="238" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>219</v>
       </c>
@@ -3282,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -3306,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="255" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>219</v>
       </c>
@@ -3329,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>817</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -3349,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -3446,10 +3452,10 @@
         <v>217</v>
       </c>
       <c r="P1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3490,13 +3496,13 @@
         <v>38</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P2" s="6" t="b">
         <v>1</v>
@@ -3549,7 +3555,7 @@
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -3602,7 +3608,7 @@
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -3655,7 +3661,7 @@
         <v>46</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P5" s="6" t="b">
         <v>1</v>
@@ -3705,7 +3711,7 @@
         <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -3758,7 +3764,7 @@
         <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -3808,10 +3814,10 @@
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -3861,7 +3867,7 @@
         <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -3914,7 +3920,7 @@
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -3943,7 +3949,7 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -3972,7 +3978,7 @@
         <v>76</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P12" s="6" t="b">
         <v>1</v>
@@ -4001,7 +4007,7 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -4030,7 +4036,7 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -4059,7 +4065,7 @@
         <v>76</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P15" s="6" t="b">
         <v>1</v>
@@ -4088,7 +4094,7 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -4117,7 +4123,7 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -4146,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P18" s="6" t="b">
         <v>1</v>
@@ -4175,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -4204,7 +4210,7 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -4233,7 +4239,7 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -4262,7 +4268,7 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -4312,10 +4318,10 @@
         <v>39</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P23" s="6" t="b">
         <v>1</v>
@@ -4365,10 +4371,10 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O24" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -4418,10 +4424,10 @@
         <v>39</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P25" s="6" t="b">
         <v>1</v>
@@ -4474,7 +4480,7 @@
         <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -4524,7 +4530,7 @@
         <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -4574,7 +4580,7 @@
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -4627,7 +4633,7 @@
         <v>40</v>
       </c>
       <c r="O29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -4680,7 +4686,7 @@
         <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -4733,7 +4739,7 @@
         <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -4783,10 +4789,10 @@
         <v>39</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P32" s="6" t="b">
         <v>1</v>
@@ -4836,10 +4842,10 @@
         <v>39</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P33" s="6" t="b">
         <v>1</v>
@@ -4889,10 +4895,10 @@
         <v>39</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P34" s="6" t="b">
         <v>1</v>
@@ -4942,10 +4948,10 @@
         <v>39</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P35" s="6" t="b">
         <v>1</v>
@@ -4995,10 +5001,10 @@
         <v>39</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P36" s="6" t="b">
         <v>1</v>
@@ -5048,10 +5054,10 @@
         <v>39</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P37" s="6" t="b">
         <v>1</v>
@@ -5101,10 +5107,10 @@
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O38" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -5154,10 +5160,10 @@
         <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O39" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -5207,10 +5213,10 @@
         <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O40" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -5227,16 +5233,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
@@ -5260,10 +5266,10 @@
         <v>39</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P41" s="6" t="b">
         <v>1</v>
@@ -5313,10 +5319,10 @@
         <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O42" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -5366,10 +5372,10 @@
         <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -5386,16 +5392,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -5419,10 +5425,10 @@
         <v>39</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P44" s="6" t="b">
         <v>1</v>
@@ -5472,10 +5478,10 @@
         <v>39</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P45" s="6" t="b">
         <v>1</v>
@@ -5492,16 +5498,16 @@
         <v>1</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G46" s="6">
         <v>2.831685E-3</v>
@@ -5522,10 +5528,10 @@
         <v>38</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>221</v>
@@ -5545,16 +5551,16 @@
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -5575,10 +5581,10 @@
         <v>38</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>221</v>
@@ -5598,16 +5604,16 @@
         <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G48" s="6">
         <v>1.7952880739999999</v>
@@ -5628,10 +5634,10 @@
         <v>38</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>221</v>
@@ -5651,16 +5657,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
@@ -5681,10 +5687,10 @@
         <v>45</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>221</v>
@@ -5704,13 +5710,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5731,10 +5737,10 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N50" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O50" t="s">
         <v>221</v>
@@ -5754,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D51" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G51">
         <v>3586</v>
@@ -5804,16 +5810,16 @@
         <v>1</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G52" s="6">
         <v>2.98947769999999E-2</v>
@@ -5834,13 +5840,13 @@
         <v>38</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P52" s="6" t="b">
         <v>1</v>
@@ -5857,16 +5863,16 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G53">
         <v>2.0724939000000001E-2</v>
@@ -5887,13 +5893,13 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O53" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -5910,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G54">
         <v>-5.3228739999999896E-3</v>
@@ -5937,13 +5943,13 @@
         <v>45</v>
       </c>
       <c r="M54" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N54" t="s">
         <v>39</v>
       </c>
       <c r="O54" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -5960,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D55" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F55" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G55">
         <v>-6.2359009999999899E-3</v>
@@ -5987,13 +5993,13 @@
         <v>45</v>
       </c>
       <c r="M55" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N55" t="s">
         <v>39</v>
       </c>
       <c r="O55" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -6010,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D56" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G56">
         <v>-2.5155538000000002E-2</v>
@@ -6037,13 +6043,13 @@
         <v>45</v>
       </c>
       <c r="M56" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N56" t="s">
         <v>39</v>
       </c>
       <c r="O56" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
@@ -6060,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D57" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G57">
         <v>-2.9719634999999901E-2</v>
@@ -6087,13 +6093,13 @@
         <v>45</v>
       </c>
       <c r="M57" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N57" t="s">
         <v>39</v>
       </c>
       <c r="O57" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -6110,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G58">
         <v>-4.3979881999999998E-2</v>
@@ -6137,13 +6143,13 @@
         <v>45</v>
       </c>
       <c r="M58" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N58" t="s">
         <v>39</v>
       </c>
       <c r="O58" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -6160,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G59">
         <v>-6.0294765999999902E-2</v>
@@ -6187,13 +6193,13 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N59" t="s">
         <v>39</v>
       </c>
       <c r="O59" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
@@ -6210,16 +6216,16 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6240,13 +6246,13 @@
         <v>38</v>
       </c>
       <c r="M60" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N60" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O60" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
@@ -6263,16 +6269,16 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6293,13 +6299,13 @@
         <v>38</v>
       </c>
       <c r="M61" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N61" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O61" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -6316,16 +6322,16 @@
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -6346,13 +6352,13 @@
         <v>38</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P62" s="6" t="b">
         <v>1</v>
@@ -6369,16 +6375,16 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6399,13 +6405,13 @@
         <v>38</v>
       </c>
       <c r="M63" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N63" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O63" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -6422,16 +6428,16 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F64" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6452,13 +6458,13 @@
         <v>38</v>
       </c>
       <c r="M64" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N64" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O64" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
@@ -6475,16 +6481,16 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6505,13 +6511,13 @@
         <v>38</v>
       </c>
       <c r="M65" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N65" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O65" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -6528,16 +6534,16 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D66" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6558,13 +6564,13 @@
         <v>38</v>
       </c>
       <c r="M66" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N66" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O66" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -6581,16 +6587,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D67" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F67" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6611,13 +6617,13 @@
         <v>38</v>
       </c>
       <c r="M67" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N67" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O67" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -6634,16 +6640,16 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F68" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6664,13 +6670,13 @@
         <v>38</v>
       </c>
       <c r="M68" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N68" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O68" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -6687,16 +6693,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6717,13 +6723,13 @@
         <v>38</v>
       </c>
       <c r="M69" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N69" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O69" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -6740,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6770,13 +6776,13 @@
         <v>38</v>
       </c>
       <c r="M70" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N70" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O70" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -6793,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6823,13 +6829,13 @@
         <v>38</v>
       </c>
       <c r="M71" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N71" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O71" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -6846,16 +6852,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D72" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6876,13 +6882,13 @@
         <v>38</v>
       </c>
       <c r="M72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N72" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O72" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -6899,16 +6905,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
@@ -6929,13 +6935,13 @@
         <v>38</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P73" s="6" t="b">
         <v>1</v>
@@ -6952,16 +6958,16 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F74" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6982,13 +6988,13 @@
         <v>38</v>
       </c>
       <c r="M74" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N74" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O74" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -7005,16 +7011,16 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D75" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7035,13 +7041,13 @@
         <v>38</v>
       </c>
       <c r="M75" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N75" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O75" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -7058,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D76" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7088,13 +7094,13 @@
         <v>38</v>
       </c>
       <c r="M76" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N76" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O76" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -7111,16 +7117,16 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7141,13 +7147,13 @@
         <v>38</v>
       </c>
       <c r="M77" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N77" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O77" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
@@ -7164,16 +7170,16 @@
         <v>1</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
@@ -7194,13 +7200,13 @@
         <v>38</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P78" s="6" t="b">
         <v>1</v>
@@ -7217,16 +7223,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7247,13 +7253,13 @@
         <v>38</v>
       </c>
       <c r="M79" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N79" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O79" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -7270,16 +7276,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F80" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G80">
         <v>2.4069320000000002E-2</v>
@@ -7300,13 +7306,13 @@
         <v>38</v>
       </c>
       <c r="M80" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N80" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O80" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
@@ -7323,16 +7329,16 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D81" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G81">
         <v>0.15840444000000001</v>
@@ -7353,13 +7359,13 @@
         <v>38</v>
       </c>
       <c r="M81" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N81" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O81" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
@@ -7376,16 +7382,16 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G82">
         <v>0.44556558099999999</v>
@@ -7406,13 +7412,13 @@
         <v>38</v>
       </c>
       <c r="M82" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N82" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O82" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
@@ -7429,16 +7435,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D83" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G83">
         <v>0.76760175100000005</v>
@@ -7459,13 +7465,13 @@
         <v>38</v>
       </c>
       <c r="M83" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N83" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O83" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
@@ -7482,16 +7488,16 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G84">
         <v>1.0804632619999901</v>
@@ -7512,13 +7518,13 @@
         <v>38</v>
       </c>
       <c r="M84" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N84" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O84" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
@@ -7535,16 +7541,16 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D85" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G85">
         <v>1.542373327</v>
@@ -7565,13 +7571,13 @@
         <v>38</v>
       </c>
       <c r="M85" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N85" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O85" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
@@ -7588,16 +7594,16 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D86" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G86">
         <v>1.7952880739999999</v>
@@ -7618,13 +7624,13 @@
         <v>38</v>
       </c>
       <c r="M86" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N86" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O86" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
@@ -7641,16 +7647,16 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D87" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F87" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G87">
         <v>-383.70118845500798</v>
@@ -7674,10 +7680,10 @@
         <v>39</v>
       </c>
       <c r="N87" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O87" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
@@ -7694,16 +7700,16 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D88" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G88">
         <v>-615.106592401851</v>
@@ -7727,10 +7733,10 @@
         <v>39</v>
       </c>
       <c r="N88" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O88" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
@@ -7747,16 +7753,16 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D89" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E89" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F89" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G89">
         <v>-478.49462365591398</v>
@@ -7780,10 +7786,10 @@
         <v>39</v>
       </c>
       <c r="N89" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O89" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
@@ -7800,16 +7806,16 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D90" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G90">
         <v>-396.388888888888</v>
@@ -7833,10 +7839,10 @@
         <v>39</v>
       </c>
       <c r="N90" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O90" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
@@ -7853,16 +7859,16 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D91" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E91" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F91" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G91">
         <v>-219.072580645161</v>
@@ -7886,10 +7892,10 @@
         <v>39</v>
       </c>
       <c r="N91" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O91" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
@@ -7906,16 +7912,16 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E92" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F92" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G92">
         <v>-222.52380952380901</v>
@@ -7939,10 +7945,10 @@
         <v>39</v>
       </c>
       <c r="N92" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O92" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
@@ -7959,16 +7965,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D93" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E93" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F93" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G93">
         <v>-295.20430107526801</v>
@@ -7992,10 +7998,10 @@
         <v>39</v>
       </c>
       <c r="N93" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O93" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
@@ -8012,16 +8018,16 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F94" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G94">
         <v>-254.03225806451599</v>
@@ -8045,10 +8051,10 @@
         <v>39</v>
       </c>
       <c r="N94" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O94" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
@@ -8065,16 +8071,16 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D95" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E95" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G95">
         <v>-356.48888888888803</v>
@@ -8098,10 +8104,10 @@
         <v>39</v>
       </c>
       <c r="N95" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O95" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
@@ -8118,16 +8124,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D96" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E96" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F96" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G96">
         <v>-123.569892473118</v>
@@ -8151,10 +8157,10 @@
         <v>39</v>
       </c>
       <c r="N96" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O96" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
@@ -8171,16 +8177,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D97" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E97" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F97" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G97">
         <v>-212.11250000000001</v>
@@ -8204,10 +8210,10 @@
         <v>39</v>
       </c>
       <c r="N97" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O97" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
@@ -8224,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D98" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F98" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G98">
         <v>-504.84101382488399</v>
@@ -8257,10 +8263,10 @@
         <v>39</v>
       </c>
       <c r="N98" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O98" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
@@ -8277,16 +8283,16 @@
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G99" s="6">
         <v>-277.07414874551898</v>
@@ -8310,10 +8316,10 @@
         <v>39</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P99" s="6" t="b">
         <v>1</v>
@@ -8330,16 +8336,16 @@
         <v>1</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G100" s="6">
         <v>-302.95016990178198</v>
@@ -8363,10 +8369,10 @@
         <v>39</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P100" s="6" t="b">
         <v>1</v>
@@ -8383,16 +8389,16 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G101" s="6">
         <v>-224.39180747567801</v>
@@ -8416,10 +8422,10 @@
         <v>39</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P101" s="6" t="b">
         <v>1</v>
@@ -8436,16 +8442,16 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G102" s="6">
         <v>-540.53406893903298</v>
@@ -8469,10 +8475,10 @@
         <v>39</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P102" s="6" t="b">
         <v>1</v>
@@ -8489,16 +8495,16 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E103" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F103" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G103">
         <v>-120.454545454545</v>
@@ -8522,10 +8528,10 @@
         <v>39</v>
       </c>
       <c r="N103" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O103" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
@@ -8542,16 +8548,16 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D104" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E104" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F104" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G104">
         <v>-104.571428571428</v>
@@ -8575,10 +8581,10 @@
         <v>39</v>
       </c>
       <c r="N104" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O104" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
@@ -8595,16 +8601,16 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D105" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E105" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F105" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G105">
         <v>-112.5</v>
@@ -8628,10 +8634,10 @@
         <v>39</v>
       </c>
       <c r="N105" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
@@ -8648,16 +8654,16 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D106" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E106" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F106" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G106">
         <v>-153.583333333333</v>
@@ -8681,10 +8687,10 @@
         <v>39</v>
       </c>
       <c r="N106" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O106" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
@@ -8701,16 +8707,16 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D107" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E107" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G107">
         <v>-170.555555555555</v>
@@ -8734,10 +8740,10 @@
         <v>39</v>
       </c>
       <c r="N107" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O107" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
@@ -8754,16 +8760,16 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D108" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E108" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F108" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G108">
         <v>-251.25</v>
@@ -8787,10 +8793,10 @@
         <v>39</v>
       </c>
       <c r="N108" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O108" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
@@ -8807,16 +8813,16 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D109" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F109" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G109">
         <v>-400</v>
@@ -8840,10 +8846,10 @@
         <v>39</v>
       </c>
       <c r="N109" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O109" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
@@ -8860,16 +8866,16 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D110" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E110" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F110" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G110">
         <v>-360</v>
@@ -8893,10 +8899,10 @@
         <v>39</v>
       </c>
       <c r="N110" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O110" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
@@ -8913,16 +8919,16 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D111" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E111" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F111" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G111">
         <v>-358.33333333333297</v>
@@ -8946,10 +8952,10 @@
         <v>39</v>
       </c>
       <c r="N111" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O111" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
@@ -8966,16 +8972,16 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E112" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F112" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G112">
         <v>-658.33333333333303</v>
@@ -8999,10 +9005,10 @@
         <v>39</v>
       </c>
       <c r="N112" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O112" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -9019,16 +9025,16 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D113" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E113" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F113" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G113">
         <v>-1900</v>
@@ -9052,10 +9058,10 @@
         <v>39</v>
       </c>
       <c r="N113" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O113" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -9072,16 +9078,16 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D114" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E114" t="s">
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G114">
         <v>-30.3761250986623</v>
@@ -9105,10 +9111,10 @@
         <v>39</v>
       </c>
       <c r="N114" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O114" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -9125,16 +9131,16 @@
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G115" s="6">
         <v>-34.052812673880602</v>
@@ -9158,10 +9164,10 @@
         <v>39</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O115" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P115" s="6" t="b">
         <v>1</v>
@@ -9178,16 +9184,16 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D116" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E116" t="s">
         <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G116">
         <v>-55.5592887949906</v>
@@ -9211,10 +9217,10 @@
         <v>39</v>
       </c>
       <c r="N116" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O116" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
@@ -9231,16 +9237,16 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D117" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E117" t="s">
         <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G117">
         <v>-31.005671682773698</v>
@@ -9264,10 +9270,10 @@
         <v>39</v>
       </c>
       <c r="N117" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O117" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
@@ -9284,16 +9290,16 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G118" s="6">
         <v>-35.175940089496002</v>
@@ -9317,10 +9323,10 @@
         <v>39</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O118" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P118" s="6" t="b">
         <v>1</v>
@@ -9337,16 +9343,16 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D119" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E119" t="s">
         <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G119">
         <v>-41.9430750314541</v>
@@ -9370,10 +9376,10 @@
         <v>39</v>
       </c>
       <c r="N119" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O119" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
@@ -9390,16 +9396,16 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D120" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E120" t="s">
         <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G120">
         <v>-32.475781703401204</v>
@@ -9423,10 +9429,10 @@
         <v>39</v>
       </c>
       <c r="N120" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O120" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
@@ -9443,16 +9449,16 @@
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G121" s="6">
         <v>-34.621899984899798</v>
@@ -9476,10 +9482,10 @@
         <v>39</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P121" s="6" t="b">
         <v>1</v>
@@ -9496,16 +9502,16 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D122" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E122" t="s">
         <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G122">
         <v>-42.481728488661702</v>
@@ -9529,10 +9535,10 @@
         <v>39</v>
       </c>
       <c r="N122" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O122" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
@@ -9549,16 +9555,16 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D123" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E123" t="s">
         <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G123">
         <v>-30.713211870273401</v>
@@ -9582,10 +9588,10 @@
         <v>39</v>
       </c>
       <c r="N123" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O123" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
@@ -9602,16 +9608,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G124" s="6">
         <v>-38.716340811666299</v>
@@ -9635,10 +9641,10 @@
         <v>39</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O124" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P124" s="6" t="b">
         <v>1</v>
@@ -9655,16 +9661,16 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D125" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E125" t="s">
         <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G125">
         <v>-54.677666118249803</v>
@@ -9688,10 +9694,10 @@
         <v>39</v>
       </c>
       <c r="N125" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O125" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
@@ -9708,16 +9714,16 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D126" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E126" t="s">
         <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G126">
         <v>-36.067928906154499</v>
@@ -9741,10 +9747,10 @@
         <v>39</v>
       </c>
       <c r="N126" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O126" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
@@ -9761,16 +9767,16 @@
         <v>1</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G127" s="6">
         <v>-35.402571699335702</v>
@@ -9794,10 +9800,10 @@
         <v>39</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P127" s="6" t="b">
         <v>1</v>
@@ -9814,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D128" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E128" t="s">
         <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G128">
         <v>-40.488429459570398</v>
@@ -9847,10 +9853,10 @@
         <v>39</v>
       </c>
       <c r="N128" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O128" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
@@ -10586,13 +10592,13 @@
         <v>38</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O142" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P142" s="6" t="b">
         <v>1</v>
@@ -10645,7 +10651,7 @@
         <v>46</v>
       </c>
       <c r="O143" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P143" t="b">
         <v>1</v>
@@ -10698,7 +10704,7 @@
         <v>46</v>
       </c>
       <c r="O144" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P144" t="b">
         <v>1</v>
@@ -10751,7 +10757,7 @@
         <v>46</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P145" s="6" t="b">
         <v>1</v>
@@ -10801,7 +10807,7 @@
         <v>40</v>
       </c>
       <c r="O146" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
@@ -10854,7 +10860,7 @@
         <v>39</v>
       </c>
       <c r="O147" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
@@ -10904,10 +10910,10 @@
         <v>39</v>
       </c>
       <c r="N148" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O148" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P148" t="b">
         <v>1</v>
@@ -10957,7 +10963,7 @@
         <v>39</v>
       </c>
       <c r="O149" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P149" t="b">
         <v>1</v>
@@ -11004,13 +11010,13 @@
         <v>38</v>
       </c>
       <c r="M150" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N150" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O150" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P150" t="b">
         <v>1</v>
@@ -11039,7 +11045,7 @@
         <v>76</v>
       </c>
       <c r="O151" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
@@ -11068,7 +11074,7 @@
         <v>76</v>
       </c>
       <c r="O152" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P152" s="6" t="b">
         <v>1</v>
@@ -11097,7 +11103,7 @@
         <v>76</v>
       </c>
       <c r="O153" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
@@ -11126,7 +11132,7 @@
         <v>76</v>
       </c>
       <c r="O154" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
@@ -11155,7 +11161,7 @@
         <v>76</v>
       </c>
       <c r="O155" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P155" s="6" t="b">
         <v>1</v>
@@ -11184,7 +11190,7 @@
         <v>76</v>
       </c>
       <c r="O156" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
@@ -11213,7 +11219,7 @@
         <v>76</v>
       </c>
       <c r="O157" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
@@ -11242,7 +11248,7 @@
         <v>76</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P158" s="6" t="b">
         <v>1</v>
@@ -11271,7 +11277,7 @@
         <v>76</v>
       </c>
       <c r="O159" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
@@ -11300,7 +11306,7 @@
         <v>76</v>
       </c>
       <c r="O160" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
@@ -11329,7 +11335,7 @@
         <v>76</v>
       </c>
       <c r="O161" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
@@ -11358,7 +11364,7 @@
         <v>76</v>
       </c>
       <c r="O162" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
@@ -11408,10 +11414,10 @@
         <v>39</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O163" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P163" s="6" t="b">
         <v>1</v>
@@ -11461,10 +11467,10 @@
         <v>39</v>
       </c>
       <c r="N164" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O164" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
@@ -11514,10 +11520,10 @@
         <v>39</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P165" s="6" t="b">
         <v>1</v>
@@ -11570,7 +11576,7 @@
         <v>39</v>
       </c>
       <c r="O166" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
@@ -11620,7 +11626,7 @@
         <v>46</v>
       </c>
       <c r="O167" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P167" s="6" t="b">
         <v>1</v>
@@ -11670,7 +11676,7 @@
         <v>46</v>
       </c>
       <c r="O168" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P168" t="b">
         <v>1</v>
@@ -11723,7 +11729,7 @@
         <v>40</v>
       </c>
       <c r="O169" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
@@ -11776,7 +11782,7 @@
         <v>40</v>
       </c>
       <c r="O170" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P170" t="b">
         <v>1</v>
@@ -11829,7 +11835,7 @@
         <v>39</v>
       </c>
       <c r="O171" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P171" t="b">
         <v>1</v>
@@ -11879,10 +11885,10 @@
         <v>39</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P172" s="6" t="b">
         <v>1</v>
@@ -11932,10 +11938,10 @@
         <v>39</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P173" s="6" t="b">
         <v>1</v>
@@ -11985,10 +11991,10 @@
         <v>39</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O174" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P174" s="6" t="b">
         <v>1</v>
@@ -12038,10 +12044,10 @@
         <v>39</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O175" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P175" s="6" t="b">
         <v>1</v>
@@ -12091,10 +12097,10 @@
         <v>39</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O176" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P176" s="6" t="b">
         <v>1</v>
@@ -12144,10 +12150,10 @@
         <v>39</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O177" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P177" s="6" t="b">
         <v>1</v>
@@ -12197,10 +12203,10 @@
         <v>39</v>
       </c>
       <c r="N178" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O178" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P178" t="b">
         <v>1</v>
@@ -12250,10 +12256,10 @@
         <v>39</v>
       </c>
       <c r="N179" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O179" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P179" t="b">
         <v>1</v>
@@ -12303,10 +12309,10 @@
         <v>39</v>
       </c>
       <c r="N180" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O180" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P180" t="b">
         <v>1</v>
@@ -12323,16 +12329,16 @@
         <v>1</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
@@ -12356,10 +12362,10 @@
         <v>39</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O181" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P181" s="6" t="b">
         <v>1</v>
@@ -12409,10 +12415,10 @@
         <v>39</v>
       </c>
       <c r="N182" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O182" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P182" t="b">
         <v>1</v>
@@ -12462,10 +12468,10 @@
         <v>39</v>
       </c>
       <c r="N183" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O183" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P183" t="b">
         <v>1</v>
@@ -12482,16 +12488,16 @@
         <v>1</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G184" s="6">
         <v>0</v>
@@ -12515,10 +12521,10 @@
         <v>39</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P184" s="6" t="b">
         <v>1</v>
@@ -12568,10 +12574,10 @@
         <v>39</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O185" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P185" s="6" t="b">
         <v>1</v>
@@ -12588,16 +12594,16 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D186" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E186" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F186" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G186" s="5">
         <v>5.3400000000000002E-10</v>
@@ -12618,13 +12624,13 @@
         <v>38</v>
       </c>
       <c r="M186" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N186" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O186" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P186" t="b">
         <v>1</v>
@@ -12641,16 +12647,16 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D187" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E187" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F187" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G187">
         <v>1.68E-9</v>
@@ -12671,13 +12677,13 @@
         <v>38</v>
       </c>
       <c r="M187" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N187" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O187" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P187" t="b">
         <v>1</v>
@@ -12694,16 +12700,16 @@
         <v>1</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G188" s="6">
         <v>1.14E-8</v>
@@ -12724,13 +12730,13 @@
         <v>38</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P188" s="6" t="b">
         <v>1</v>
@@ -12747,16 +12753,16 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D189" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E189" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F189" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G189">
         <v>2.7800000000000001E-8</v>
@@ -12777,13 +12783,13 @@
         <v>38</v>
       </c>
       <c r="M189" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N189" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O189" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P189" t="b">
         <v>1</v>
@@ -12800,16 +12806,16 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D190" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E190" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F190" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G190">
         <v>8.6900000000000004E-8</v>
@@ -12830,13 +12836,13 @@
         <v>38</v>
       </c>
       <c r="M190" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N190" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O190" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P190" t="b">
         <v>1</v>
@@ -12853,16 +12859,16 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D191" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E191" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F191" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G191">
         <v>2.3999999999999998E-7</v>
@@ -12883,13 +12889,13 @@
         <v>38</v>
       </c>
       <c r="M191" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N191" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O191" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P191" t="b">
         <v>1</v>
@@ -12906,16 +12912,16 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D192" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E192" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F192" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G192">
         <v>7.0699999999999996E-7</v>
@@ -12936,13 +12942,13 @@
         <v>38</v>
       </c>
       <c r="M192" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N192" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O192" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P192" t="b">
         <v>1</v>
@@ -12959,16 +12965,16 @@
         <v>1</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G193" s="6">
         <v>2.1600000000000001E-6</v>
@@ -12989,13 +12995,13 @@
         <v>38</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P193" s="6" t="b">
         <v>1</v>
@@ -13012,16 +13018,16 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D194" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E194" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F194" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G194">
         <v>6.4400000000000002E-6</v>
@@ -13042,13 +13048,13 @@
         <v>38</v>
       </c>
       <c r="M194" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N194" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O194" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P194" t="b">
         <v>1</v>
@@ -13065,16 +13071,16 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D195" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E195" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F195" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G195">
         <v>1.9000000000000001E-5</v>
@@ -13095,13 +13101,13 @@
         <v>38</v>
       </c>
       <c r="M195" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N195" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O195" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P195" t="b">
         <v>1</v>
@@ -13118,16 +13124,16 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D196" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E196" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F196" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G196">
         <v>5.6499999999999998E-5</v>
@@ -13148,13 +13154,13 @@
         <v>38</v>
       </c>
       <c r="M196" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N196" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O196" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P196" t="b">
         <v>1</v>
@@ -13171,16 +13177,16 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D197" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E197" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F197" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G197">
         <v>2.0699999999999999E-4</v>
@@ -13201,13 +13207,13 @@
         <v>38</v>
       </c>
       <c r="M197" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N197" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O197" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P197" t="b">
         <v>1</v>
@@ -13224,16 +13230,16 @@
         <v>1</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G198" s="6">
         <v>3.9100000000000002E-4</v>
@@ -13254,13 +13260,13 @@
         <v>38</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P198" s="6" t="b">
         <v>1</v>
@@ -13277,16 +13283,16 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D199" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E199" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F199" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G199">
         <v>1.5399999999999999E-3</v>
@@ -13307,13 +13313,13 @@
         <v>38</v>
       </c>
       <c r="M199" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N199" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O199" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P199" t="b">
         <v>1</v>
@@ -13330,16 +13336,16 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D200" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E200" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F200" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G200">
         <v>4.5300000000000002E-3</v>
@@ -13360,13 +13366,13 @@
         <v>38</v>
       </c>
       <c r="M200" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N200" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O200" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P200" t="b">
         <v>1</v>
@@ -14091,10 +14097,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -14108,10 +14114,10 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14122,10 +14128,10 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14136,10 +14142,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14150,10 +14156,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D5" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14164,10 +14170,10 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D6" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14178,10 +14184,10 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14192,10 +14198,10 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -14206,10 +14212,10 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D9" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -14220,10 +14226,10 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D10" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -14234,10 +14240,10 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -14248,10 +14254,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -14262,10 +14268,10 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D13" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -14276,10 +14282,10 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D14" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -14290,10 +14296,10 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -14304,10 +14310,10 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D16" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -14318,10 +14324,10 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D17" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -14332,10 +14338,10 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D18" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -14346,10 +14352,10 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D19" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -14360,10 +14366,10 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D20" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -14374,10 +14380,10 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D21" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -14388,10 +14394,10 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D22" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -14402,10 +14408,10 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D23" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -14416,10 +14422,10 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -14430,10 +14436,10 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -14444,10 +14450,10 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D26" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -14458,10 +14464,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D27" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -14472,10 +14478,10 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D28" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -14486,10 +14492,10 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D29" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -14500,10 +14506,10 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D30" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -14514,10 +14520,10 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D31" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -14528,10 +14534,10 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D32" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -14542,10 +14548,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D33" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -14556,10 +14562,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D34" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -14570,10 +14576,10 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D35" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -14584,10 +14590,10 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D36" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -14598,10 +14604,10 @@
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D37" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -14612,10 +14618,10 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D38" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -14626,10 +14632,10 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D39" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -14640,10 +14646,10 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D40" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -14654,10 +14660,10 @@
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D41" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -14668,10 +14674,10 @@
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D42" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -14682,10 +14688,10 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D43" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -14696,10 +14702,10 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D44" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -14710,10 +14716,10 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D45" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -14724,10 +14730,10 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D46" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -14738,10 +14744,10 @@
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D47" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -14752,10 +14758,10 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D48" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -14766,10 +14772,10 @@
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D49" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -14780,10 +14786,10 @@
         <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D50" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -14794,10 +14800,10 @@
         <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D51" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -14808,10 +14814,10 @@
         <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D52" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -14822,10 +14828,10 @@
         <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D53" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -14836,10 +14842,10 @@
         <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D54" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -14850,10 +14856,10 @@
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D55" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -14864,10 +14870,10 @@
         <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D56" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -14878,10 +14884,10 @@
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D57" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -14892,10 +14898,10 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D58" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -14906,10 +14912,10 @@
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D59" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -14920,10 +14926,10 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D60" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -14934,10 +14940,10 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D61" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -14948,10 +14954,10 @@
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D62" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -14962,10 +14968,10 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D63" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -14976,10 +14982,10 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D64" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -14990,10 +14996,10 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D65" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -15004,10 +15010,10 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D66" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -15018,10 +15024,10 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D67" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -15032,10 +15038,10 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D68" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -15046,10 +15052,10 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D69" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -15060,10 +15066,10 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D70" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -15074,10 +15080,10 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D71" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -15088,10 +15094,10 @@
         <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D72" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -15102,10 +15108,10 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D73" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -15116,10 +15122,10 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D74" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -15130,10 +15136,10 @@
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D75" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -15144,10 +15150,10 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D76" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -15158,10 +15164,10 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D77" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -15172,10 +15178,10 @@
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D78" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -15186,10 +15192,10 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D79" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -15200,10 +15206,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D80" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -15214,10 +15220,10 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D81" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -15228,10 +15234,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D82" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -15242,10 +15248,10 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D83" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -15256,10 +15262,10 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D84" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -15270,10 +15276,10 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D85" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -15284,10 +15290,10 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D86" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -15298,10 +15304,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D87" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -15312,10 +15318,10 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D88" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -15326,10 +15332,10 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D89" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -15340,10 +15346,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D90" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -15354,10 +15360,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D91" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -15368,10 +15374,10 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D92" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -15382,10 +15388,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D93" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -15396,10 +15402,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D94" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -15410,10 +15416,10 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D95" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -15424,10 +15430,10 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D96" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -15438,10 +15444,10 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D97" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -15452,10 +15458,10 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D98" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -15466,10 +15472,10 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D99" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -15480,10 +15486,10 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D100" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -15494,10 +15500,10 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D101" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -15508,10 +15514,10 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D102" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -15522,10 +15528,10 @@
         <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D103" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -15536,10 +15542,10 @@
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D104" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -15550,10 +15556,10 @@
         <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D105" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -15564,10 +15570,10 @@
         <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D106" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -15578,10 +15584,10 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D107" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -15592,10 +15598,10 @@
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D108" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -15606,10 +15612,10 @@
         <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D109" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -15620,10 +15626,10 @@
         <v>98</v>
       </c>
       <c r="C110" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D110" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -15634,10 +15640,10 @@
         <v>98</v>
       </c>
       <c r="C111" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D111" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -15648,10 +15654,10 @@
         <v>98</v>
       </c>
       <c r="C112" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D112" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -15662,10 +15668,10 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D113" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -15676,10 +15682,10 @@
         <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D114" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -15690,10 +15696,10 @@
         <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D115" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -15704,10 +15710,10 @@
         <v>98</v>
       </c>
       <c r="C116" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D116" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -15718,10 +15724,10 @@
         <v>98</v>
       </c>
       <c r="C117" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D117" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -15732,10 +15738,10 @@
         <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D118" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -15746,10 +15752,10 @@
         <v>98</v>
       </c>
       <c r="C119" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D119" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -15760,10 +15766,10 @@
         <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D120" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -15774,10 +15780,10 @@
         <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D121" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -15788,10 +15794,10 @@
         <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D122" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -15802,10 +15808,10 @@
         <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D123" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -15816,10 +15822,10 @@
         <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D124" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -15830,10 +15836,10 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D125" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -15844,10 +15850,10 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D126" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -15858,10 +15864,10 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D127" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -15872,10 +15878,10 @@
         <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D128" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -15886,10 +15892,10 @@
         <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D129" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -15900,10 +15906,10 @@
         <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D130" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -15914,10 +15920,10 @@
         <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D131" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -15928,10 +15934,10 @@
         <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D132" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -15942,10 +15948,10 @@
         <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D133" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -15956,10 +15962,10 @@
         <v>101</v>
       </c>
       <c r="C134" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D134" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -15970,10 +15976,10 @@
         <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D135" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -15984,10 +15990,10 @@
         <v>104</v>
       </c>
       <c r="C136" t="s">
+        <v>709</v>
+      </c>
+      <c r="D136" t="s">
         <v>714</v>
-      </c>
-      <c r="D136" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -15998,10 +16004,10 @@
         <v>104</v>
       </c>
       <c r="C137" t="s">
+        <v>710</v>
+      </c>
+      <c r="D137" t="s">
         <v>715</v>
-      </c>
-      <c r="D137" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -16012,10 +16018,10 @@
         <v>104</v>
       </c>
       <c r="C138" t="s">
+        <v>711</v>
+      </c>
+      <c r="D138" t="s">
         <v>716</v>
-      </c>
-      <c r="D138" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -16026,10 +16032,10 @@
         <v>104</v>
       </c>
       <c r="C139" t="s">
+        <v>712</v>
+      </c>
+      <c r="D139" t="s">
         <v>717</v>
-      </c>
-      <c r="D139" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -16040,10 +16046,10 @@
         <v>104</v>
       </c>
       <c r="C140" t="s">
+        <v>713</v>
+      </c>
+      <c r="D140" t="s">
         <v>718</v>
-      </c>
-      <c r="D140" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -16054,10 +16060,10 @@
         <v>107</v>
       </c>
       <c r="C141" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D141" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -16068,10 +16074,10 @@
         <v>107</v>
       </c>
       <c r="C142" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D142" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -16082,10 +16088,10 @@
         <v>73</v>
       </c>
       <c r="C143" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D143" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -16096,10 +16102,10 @@
         <v>73</v>
       </c>
       <c r="C144" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D144" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -16110,10 +16116,10 @@
         <v>73</v>
       </c>
       <c r="C145" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D145" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -16124,10 +16130,10 @@
         <v>73</v>
       </c>
       <c r="C146" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D146" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -16138,10 +16144,10 @@
         <v>73</v>
       </c>
       <c r="C147" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D147" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -16152,10 +16158,10 @@
         <v>73</v>
       </c>
       <c r="C148" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D148" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -16166,10 +16172,10 @@
         <v>73</v>
       </c>
       <c r="C149" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D149" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -16180,10 +16186,10 @@
         <v>73</v>
       </c>
       <c r="C150" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D150" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -16194,10 +16200,10 @@
         <v>73</v>
       </c>
       <c r="C151" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D151" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -16208,10 +16214,10 @@
         <v>73</v>
       </c>
       <c r="C152" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D152" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -16222,10 +16228,10 @@
         <v>73</v>
       </c>
       <c r="C153" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D153" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -16236,10 +16242,10 @@
         <v>73</v>
       </c>
       <c r="C154" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D154" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -16250,10 +16256,10 @@
         <v>73</v>
       </c>
       <c r="C155" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D155" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -16264,10 +16270,10 @@
         <v>73</v>
       </c>
       <c r="C156" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D156" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -16278,10 +16284,10 @@
         <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D157" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -16292,10 +16298,10 @@
         <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D158" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -16306,10 +16312,10 @@
         <v>77</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D159" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -16320,10 +16326,10 @@
         <v>77</v>
       </c>
       <c r="C160" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D160" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -16334,10 +16340,10 @@
         <v>77</v>
       </c>
       <c r="C161" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D161" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -16348,10 +16354,10 @@
         <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D162" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -16362,10 +16368,10 @@
         <v>77</v>
       </c>
       <c r="C163" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D163" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -16376,10 +16382,10 @@
         <v>77</v>
       </c>
       <c r="C164" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D164" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -16390,10 +16396,10 @@
         <v>77</v>
       </c>
       <c r="C165" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D165" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -16404,10 +16410,10 @@
         <v>77</v>
       </c>
       <c r="C166" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D166" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -16418,10 +16424,10 @@
         <v>77</v>
       </c>
       <c r="C167" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D167" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -16432,10 +16438,10 @@
         <v>77</v>
       </c>
       <c r="C168" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D168" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -16446,10 +16452,10 @@
         <v>77</v>
       </c>
       <c r="C169" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D169" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -16460,10 +16466,10 @@
         <v>80</v>
       </c>
       <c r="C170" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D170" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -16474,10 +16480,10 @@
         <v>80</v>
       </c>
       <c r="C171" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D171" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -16488,10 +16494,10 @@
         <v>80</v>
       </c>
       <c r="C172" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D172" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -16502,10 +16508,10 @@
         <v>80</v>
       </c>
       <c r="C173" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D173" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -16516,10 +16522,10 @@
         <v>80</v>
       </c>
       <c r="C174" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D174" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -16530,10 +16536,10 @@
         <v>80</v>
       </c>
       <c r="C175" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D175" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -16544,10 +16550,10 @@
         <v>83</v>
       </c>
       <c r="C176" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D176" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -16558,10 +16564,10 @@
         <v>83</v>
       </c>
       <c r="C177" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D177" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -16572,10 +16578,10 @@
         <v>83</v>
       </c>
       <c r="C178" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D178" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -16586,10 +16592,10 @@
         <v>83</v>
       </c>
       <c r="C179" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D179" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -16600,10 +16606,10 @@
         <v>83</v>
       </c>
       <c r="C180" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D180" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -16614,10 +16620,10 @@
         <v>83</v>
       </c>
       <c r="C181" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D181" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -16628,10 +16634,10 @@
         <v>83</v>
       </c>
       <c r="C182" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D182" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -16642,10 +16648,10 @@
         <v>83</v>
       </c>
       <c r="C183" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D183" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -16656,10 +16662,10 @@
         <v>83</v>
       </c>
       <c r="C184" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D184" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -16670,10 +16676,10 @@
         <v>83</v>
       </c>
       <c r="C185" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D185" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -16684,10 +16690,10 @@
         <v>83</v>
       </c>
       <c r="C186" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D186" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -16698,10 +16704,10 @@
         <v>83</v>
       </c>
       <c r="C187" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D187" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -16712,10 +16718,10 @@
         <v>83</v>
       </c>
       <c r="C188" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D188" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -16726,10 +16732,10 @@
         <v>83</v>
       </c>
       <c r="C189" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D189" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -16740,10 +16746,10 @@
         <v>83</v>
       </c>
       <c r="C190" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D190" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -16754,10 +16760,10 @@
         <v>83</v>
       </c>
       <c r="C191" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D191" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -16768,10 +16774,10 @@
         <v>83</v>
       </c>
       <c r="C192" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D192" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -16782,10 +16788,10 @@
         <v>83</v>
       </c>
       <c r="C193" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D193" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -16796,10 +16802,10 @@
         <v>83</v>
       </c>
       <c r="C194" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D194" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -16810,10 +16816,10 @@
         <v>83</v>
       </c>
       <c r="C195" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D195" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -16824,10 +16830,10 @@
         <v>86</v>
       </c>
       <c r="C196" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D196" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -16838,10 +16844,10 @@
         <v>86</v>
       </c>
       <c r="C197" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D197" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -16852,10 +16858,10 @@
         <v>86</v>
       </c>
       <c r="C198" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D198" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -16866,10 +16872,10 @@
         <v>86</v>
       </c>
       <c r="C199" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D199" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -16880,10 +16886,10 @@
         <v>86</v>
       </c>
       <c r="C200" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D200" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -16894,10 +16900,10 @@
         <v>86</v>
       </c>
       <c r="C201" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D201" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -16908,10 +16914,10 @@
         <v>86</v>
       </c>
       <c r="C202" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D202" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -16922,10 +16928,10 @@
         <v>86</v>
       </c>
       <c r="C203" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D203" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -16936,10 +16942,10 @@
         <v>86</v>
       </c>
       <c r="C204" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D204" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -16950,10 +16956,10 @@
         <v>86</v>
       </c>
       <c r="C205" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D205" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -16964,10 +16970,10 @@
         <v>86</v>
       </c>
       <c r="C206" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D206" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -16978,10 +16984,10 @@
         <v>86</v>
       </c>
       <c r="C207" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D207" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -16992,10 +16998,10 @@
         <v>86</v>
       </c>
       <c r="C208" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D208" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -17006,10 +17012,10 @@
         <v>86</v>
       </c>
       <c r="C209" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D209" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -17020,10 +17026,10 @@
         <v>86</v>
       </c>
       <c r="C210" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D210" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -17034,10 +17040,10 @@
         <v>86</v>
       </c>
       <c r="C211" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D211" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -17048,10 +17054,10 @@
         <v>86</v>
       </c>
       <c r="C212" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D212" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -17062,10 +17068,10 @@
         <v>89</v>
       </c>
       <c r="C213" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D213" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -17076,10 +17082,10 @@
         <v>89</v>
       </c>
       <c r="C214" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D214" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -17090,10 +17096,10 @@
         <v>89</v>
       </c>
       <c r="C215" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D215" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -17104,10 +17110,10 @@
         <v>89</v>
       </c>
       <c r="C216" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D216" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -17118,10 +17124,10 @@
         <v>89</v>
       </c>
       <c r="C217" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D217" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -17132,10 +17138,10 @@
         <v>89</v>
       </c>
       <c r="C218" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D218" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -17146,10 +17152,10 @@
         <v>89</v>
       </c>
       <c r="C219" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D219" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -17160,10 +17166,10 @@
         <v>89</v>
       </c>
       <c r="C220" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D220" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -17174,10 +17180,10 @@
         <v>89</v>
       </c>
       <c r="C221" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D221" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -17188,10 +17194,10 @@
         <v>89</v>
       </c>
       <c r="C222" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D222" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -17202,10 +17208,10 @@
         <v>89</v>
       </c>
       <c r="C223" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D223" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -17216,10 +17222,10 @@
         <v>89</v>
       </c>
       <c r="C224" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D224" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -17230,10 +17236,10 @@
         <v>89</v>
       </c>
       <c r="C225" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D225" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -17244,10 +17250,10 @@
         <v>89</v>
       </c>
       <c r="C226" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D226" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -17258,10 +17264,10 @@
         <v>89</v>
       </c>
       <c r="C227" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D227" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -17272,10 +17278,10 @@
         <v>89</v>
       </c>
       <c r="C228" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D228" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -17286,10 +17292,10 @@
         <v>92</v>
       </c>
       <c r="C229" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D229" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -17300,10 +17306,10 @@
         <v>92</v>
       </c>
       <c r="C230" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D230" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -17314,10 +17320,10 @@
         <v>92</v>
       </c>
       <c r="C231" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D231" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -17328,10 +17334,10 @@
         <v>92</v>
       </c>
       <c r="C232" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D232" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -17342,10 +17348,10 @@
         <v>92</v>
       </c>
       <c r="C233" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D233" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -17356,10 +17362,10 @@
         <v>92</v>
       </c>
       <c r="C234" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D234" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -17370,10 +17376,10 @@
         <v>92</v>
       </c>
       <c r="C235" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D235" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -17384,10 +17390,10 @@
         <v>92</v>
       </c>
       <c r="C236" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D236" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -17398,10 +17404,10 @@
         <v>92</v>
       </c>
       <c r="C237" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D237" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -17412,10 +17418,10 @@
         <v>95</v>
       </c>
       <c r="C238" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D238" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -17426,10 +17432,10 @@
         <v>95</v>
       </c>
       <c r="C239" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D239" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -17440,10 +17446,10 @@
         <v>95</v>
       </c>
       <c r="C240" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D240" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -17454,10 +17460,10 @@
         <v>95</v>
       </c>
       <c r="C241" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D241" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -17468,10 +17474,10 @@
         <v>95</v>
       </c>
       <c r="C242" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D242" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -17482,10 +17488,10 @@
         <v>95</v>
       </c>
       <c r="C243" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D243" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -17496,10 +17502,10 @@
         <v>95</v>
       </c>
       <c r="C244" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D244" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -17510,10 +17516,10 @@
         <v>98</v>
       </c>
       <c r="C245" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D245" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -17524,10 +17530,10 @@
         <v>98</v>
       </c>
       <c r="C246" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D246" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -17538,10 +17544,10 @@
         <v>98</v>
       </c>
       <c r="C247" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D247" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -17552,10 +17558,10 @@
         <v>98</v>
       </c>
       <c r="C248" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D248" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -17566,10 +17572,10 @@
         <v>98</v>
       </c>
       <c r="C249" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D249" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -17580,10 +17586,10 @@
         <v>98</v>
       </c>
       <c r="C250" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D250" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -17594,10 +17600,10 @@
         <v>98</v>
       </c>
       <c r="C251" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D251" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -17608,10 +17614,10 @@
         <v>98</v>
       </c>
       <c r="C252" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D252" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -17622,10 +17628,10 @@
         <v>98</v>
       </c>
       <c r="C253" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D253" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -17636,10 +17642,10 @@
         <v>98</v>
       </c>
       <c r="C254" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D254" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -17650,10 +17656,10 @@
         <v>98</v>
       </c>
       <c r="C255" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D255" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -17664,10 +17670,10 @@
         <v>98</v>
       </c>
       <c r="C256" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D256" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -17678,10 +17684,10 @@
         <v>98</v>
       </c>
       <c r="C257" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D257" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -17692,10 +17698,10 @@
         <v>98</v>
       </c>
       <c r="C258" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D258" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -17706,10 +17712,10 @@
         <v>98</v>
       </c>
       <c r="C259" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D259" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -17720,10 +17726,10 @@
         <v>98</v>
       </c>
       <c r="C260" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D260" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -17734,10 +17740,10 @@
         <v>101</v>
       </c>
       <c r="C261" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D261" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -17748,10 +17754,10 @@
         <v>101</v>
       </c>
       <c r="C262" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D262" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -17762,10 +17768,10 @@
         <v>101</v>
       </c>
       <c r="C263" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D263" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -17776,10 +17782,10 @@
         <v>101</v>
       </c>
       <c r="C264" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D264" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -17790,10 +17796,10 @@
         <v>101</v>
       </c>
       <c r="C265" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D265" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -17804,10 +17810,10 @@
         <v>101</v>
       </c>
       <c r="C266" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D266" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -17818,10 +17824,10 @@
         <v>101</v>
       </c>
       <c r="C267" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D267" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -17832,10 +17838,10 @@
         <v>101</v>
       </c>
       <c r="C268" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D268" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -17846,10 +17852,10 @@
         <v>101</v>
       </c>
       <c r="C269" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D269" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -17860,10 +17866,10 @@
         <v>101</v>
       </c>
       <c r="C270" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D270" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -17874,10 +17880,10 @@
         <v>101</v>
       </c>
       <c r="C271" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D271" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -17888,10 +17894,10 @@
         <v>101</v>
       </c>
       <c r="C272" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D272" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -17902,10 +17908,10 @@
         <v>101</v>
       </c>
       <c r="C273" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D273" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -17916,10 +17922,10 @@
         <v>101</v>
       </c>
       <c r="C274" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D274" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -17930,10 +17936,10 @@
         <v>101</v>
       </c>
       <c r="C275" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D275" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -17944,10 +17950,10 @@
         <v>101</v>
       </c>
       <c r="C276" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D276" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -17958,10 +17964,10 @@
         <v>104</v>
       </c>
       <c r="C277" t="s">
+        <v>709</v>
+      </c>
+      <c r="D277" t="s">
         <v>714</v>
-      </c>
-      <c r="D277" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -17972,10 +17978,10 @@
         <v>104</v>
       </c>
       <c r="C278" t="s">
+        <v>710</v>
+      </c>
+      <c r="D278" t="s">
         <v>715</v>
-      </c>
-      <c r="D278" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -17986,10 +17992,10 @@
         <v>104</v>
       </c>
       <c r="C279" t="s">
+        <v>711</v>
+      </c>
+      <c r="D279" t="s">
         <v>716</v>
-      </c>
-      <c r="D279" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -18000,10 +18006,10 @@
         <v>104</v>
       </c>
       <c r="C280" t="s">
+        <v>712</v>
+      </c>
+      <c r="D280" t="s">
         <v>717</v>
-      </c>
-      <c r="D280" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -18014,10 +18020,10 @@
         <v>104</v>
       </c>
       <c r="C281" t="s">
+        <v>713</v>
+      </c>
+      <c r="D281" t="s">
         <v>718</v>
-      </c>
-      <c r="D281" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -18028,10 +18034,10 @@
         <v>107</v>
       </c>
       <c r="C282" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D282" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -18042,10 +18048,10 @@
         <v>107</v>
       </c>
       <c r="C283" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D283" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Projects/sheds/ice/ice-lmg/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B744B4-834E-B441-99AE-CC2440328BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F3504-9C8D-BB42-8B77-B28AF3CE86A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="807">
   <si>
     <t>theme</t>
   </si>
@@ -827,84 +827,6 @@
     <t>Number of days for the decade where daily-mean streamflow was equal to zero (negative flows for tidally influenced sites treated as zero flow).</t>
   </si>
   <si>
-    <t>0.02 Percentile</t>
-  </si>
-  <si>
-    <t>0.05 Percentile</t>
-  </si>
-  <si>
-    <t>0.1 Percentile</t>
-  </si>
-  <si>
-    <t>0.2 Percentile</t>
-  </si>
-  <si>
-    <t>0.5 Percentile</t>
-  </si>
-  <si>
-    <t>1 Percentile</t>
-  </si>
-  <si>
-    <t>2 Percentile</t>
-  </si>
-  <si>
-    <t>5 Percentile</t>
-  </si>
-  <si>
-    <t>10 Percentile</t>
-  </si>
-  <si>
-    <t>20 Percentile</t>
-  </si>
-  <si>
-    <t>25 Percentile</t>
-  </si>
-  <si>
-    <t>30 Percentile</t>
-  </si>
-  <si>
-    <t>40 Percentile</t>
-  </si>
-  <si>
-    <t>60 Percentile</t>
-  </si>
-  <si>
-    <t>70 Percentile</t>
-  </si>
-  <si>
-    <t>75 Percentile</t>
-  </si>
-  <si>
-    <t>80 Percentile</t>
-  </si>
-  <si>
-    <t>90 Percentile</t>
-  </si>
-  <si>
-    <t>95 Percentile</t>
-  </si>
-  <si>
-    <t>98 Percentile</t>
-  </si>
-  <si>
-    <t>99 Percentile</t>
-  </si>
-  <si>
-    <t>99.5 Percentile</t>
-  </si>
-  <si>
-    <t>99.8 Percentile</t>
-  </si>
-  <si>
-    <t>99.9 Percentile</t>
-  </si>
-  <si>
-    <t>99.95 Percentile</t>
-  </si>
-  <si>
-    <t>99.98 Percentile</t>
-  </si>
-  <si>
     <t>Pct Time Zero Flow</t>
   </si>
   <si>
@@ -1067,30 +989,6 @@
     <t>Mean estimate of posterior distribution generated by Monte-Carlo dropout for 99.97% Quantile</t>
   </si>
   <si>
-    <t>Skew (3rd L-Moment Ratio)</t>
-  </si>
-  <si>
-    <t>Mean (1st L-Moment)</t>
-  </si>
-  <si>
-    <t>Spread (2nd L-Moment)</t>
-  </si>
-  <si>
-    <t>Kurtosis (4th L-Moment Ratio)</t>
-  </si>
-  <si>
-    <t>5th L-Moment Ratio</t>
-  </si>
-  <si>
-    <t>6th L-Moment Ratio</t>
-  </si>
-  <si>
-    <t>7th L-Moment Ratio</t>
-  </si>
-  <si>
-    <t>8th L-Moment Ratio</t>
-  </si>
-  <si>
     <t>,.2r</t>
   </si>
   <si>
@@ -1277,51 +1175,6 @@
     <t>mk_q100_slope</t>
   </si>
   <si>
-    <t>Annual Min Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Annual Median Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Annual Max Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Spring Min Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Spring Median Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Spring Max Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Summer Min Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Summer Median Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Summer Max Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Fall Min Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Fall Median Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Fall Max Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Winter Min Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Winter Median Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
-    <t>Winter Max Streamflow - QK Trend Slope</t>
-  </si>
-  <si>
     <t>Estimated Sen slope (%/yr) of Annual Min streamflow based on Quantile-Kendall test</t>
   </si>
   <si>
@@ -1430,87 +1283,6 @@
     <t>Mann-Kendall Trend Test - By Quantile</t>
   </si>
   <si>
-    <t>MK Trend Slope - Jan Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Feb Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Mar Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Apr Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - May Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Jun Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Jul Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Aug Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Sep Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Oct Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Nov Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Dec Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Spring Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Summer Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Fall Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - Winter Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 0th Percentile (Min) Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 10th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 20th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 30th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 40th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 50th Percentile (Median) Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 60th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 70th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 80th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 90th Percentile Streamflow</t>
-  </si>
-  <si>
-    <t>MK Trend Slope - 100th Percentile (Max) Streamflow</t>
-  </si>
-  <si>
     <t>Estimated Sen slope (m3/s/yr) of 0th percentile (min) streamflow based on Mann-Kendall test</t>
   </si>
   <si>
@@ -1691,9 +1463,6 @@
     <t>q_f99.98</t>
   </si>
   <si>
-    <t>50 Percentile (Median)</t>
-  </si>
-  <si>
     <t>,.2f</t>
   </si>
   <si>
@@ -1709,51 +1478,6 @@
     <t>q_f99.97</t>
   </si>
   <si>
-    <t>0.03% Percentile</t>
-  </si>
-  <si>
-    <t>0.5% Percentile</t>
-  </si>
-  <si>
-    <t>5% Percentile</t>
-  </si>
-  <si>
-    <t>10% Percentile</t>
-  </si>
-  <si>
-    <t>20% Percentile</t>
-  </si>
-  <si>
-    <t>30% Percentile</t>
-  </si>
-  <si>
-    <t>40% Percentile</t>
-  </si>
-  <si>
-    <t>50% Percentile (Median)</t>
-  </si>
-  <si>
-    <t>60% Percentile</t>
-  </si>
-  <si>
-    <t>70% Percentile</t>
-  </si>
-  <si>
-    <t>80% Percentile</t>
-  </si>
-  <si>
-    <t>90% Percentile</t>
-  </si>
-  <si>
-    <t>95% Percentile</t>
-  </si>
-  <si>
-    <t>99.5% Percentile</t>
-  </si>
-  <si>
-    <t>99.97% Percentile</t>
-  </si>
-  <si>
     <t>dims_signif</t>
   </si>
   <si>
@@ -2493,6 +2217,246 @@
   </si>
   <si>
     <t>Physical and climatic basin characteristics for 9,314 level-12 Hydrologic Unit Code (HUC12) basins that drain to the Gulf of Mexico. The variables represent mutable and immutable basin characteristics and are organized by characteristic type: physical (5), hydrologic (6), categorical (12), climate (6), landscape alteration (7), and land cover (12).  Mutable characteristics such as climate, land cover, and landscape alteration variables are reported in decadal increments (1950s, 1960s, ..., 2000s).</t>
+  </si>
+  <si>
+    <t>Mean Flow (1st L-Moment)</t>
+  </si>
+  <si>
+    <t>Spread Flow (2nd L-Moment)</t>
+  </si>
+  <si>
+    <t>Skew Flow (3rd L-Moment Ratio)</t>
+  </si>
+  <si>
+    <t>Kurtosis Flow (4th L-Moment Ratio)</t>
+  </si>
+  <si>
+    <t>5th L-Moment Ratio of Flow</t>
+  </si>
+  <si>
+    <t>6th L-Moment Ratio of Flow</t>
+  </si>
+  <si>
+    <t>7th L-Moment Ratio of Flow</t>
+  </si>
+  <si>
+    <t>8th L-Moment Ratio of Flow</t>
+  </si>
+  <si>
+    <t>0.02 Percentile Flow</t>
+  </si>
+  <si>
+    <t>0.05 Percentile Flow</t>
+  </si>
+  <si>
+    <t>0.1 Percentile Flow</t>
+  </si>
+  <si>
+    <t>0.2 Percentile Flow</t>
+  </si>
+  <si>
+    <t>0.5 Percentile Flow</t>
+  </si>
+  <si>
+    <t>1 Percentile Flow</t>
+  </si>
+  <si>
+    <t>2 Percentile Flow</t>
+  </si>
+  <si>
+    <t>5 Percentile Flow</t>
+  </si>
+  <si>
+    <t>10 Percentile Flow</t>
+  </si>
+  <si>
+    <t>20 Percentile Flow</t>
+  </si>
+  <si>
+    <t>25 Percentile Flow</t>
+  </si>
+  <si>
+    <t>30 Percentile Flow</t>
+  </si>
+  <si>
+    <t>40 Percentile Flow</t>
+  </si>
+  <si>
+    <t>50 Percentile Flow (Median)</t>
+  </si>
+  <si>
+    <t>60 Percentile Flow</t>
+  </si>
+  <si>
+    <t>70 Percentile Flow</t>
+  </si>
+  <si>
+    <t>75 Percentile Flow</t>
+  </si>
+  <si>
+    <t>80 Percentile Flow</t>
+  </si>
+  <si>
+    <t>90 Percentile Flow</t>
+  </si>
+  <si>
+    <t>95 Percentile Flow</t>
+  </si>
+  <si>
+    <t>98 Percentile Flow</t>
+  </si>
+  <si>
+    <t>99 Percentile Flow</t>
+  </si>
+  <si>
+    <t>99.5 Percentile Flow</t>
+  </si>
+  <si>
+    <t>99.8 Percentile Flow</t>
+  </si>
+  <si>
+    <t>99.9 Percentile Flow</t>
+  </si>
+  <si>
+    <t>99.95 Percentile Flow</t>
+  </si>
+  <si>
+    <t>99.98 Percentile Flow</t>
+  </si>
+  <si>
+    <t>Jan Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Dec Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Feb Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Mar Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Apr Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>May Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Jun Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Jul Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Aug Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Sep Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Oct Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Nov Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Spring Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Summer Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Fall Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Winter Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>0th Percentile (Min) Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>10th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>20th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>30th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>40th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>50th Percentile (Median) Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>60th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>70th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>80th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>90th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>100th Percentile (Max) Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>Annual Min Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Annual Median Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Annual Max Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Spring Min Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Spring Median Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Spring Max Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Summer Min Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Summer Max Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Summer Median Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Fall Min Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Fall Median Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Fall Max Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Winter Min Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Winter Median Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>Winter Max Streamflow Trend Slope (QK)</t>
+  </si>
+  <si>
+    <t>0.03 Percentile Flow</t>
+  </si>
+  <si>
+    <t>50 Percentile (Median) Flow</t>
+  </si>
+  <si>
+    <t>99.97 Percentile Flow</t>
   </si>
 </sst>
 </file>
@@ -2893,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2921,16 +2885,16 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -2945,16 +2909,16 @@
         <v>226</v>
       </c>
       <c r="L1" t="s">
-        <v>572</v>
+        <v>480</v>
       </c>
       <c r="M1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="N1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="O1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -2962,16 +2926,16 @@
         <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>810</v>
+        <v>718</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -3000,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>812</v>
+        <v>720</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -3022,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -3045,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>815</v>
+        <v>723</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -3067,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -3090,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>813</v>
+        <v>721</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -3114,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -3137,10 +3101,10 @@
         <v>216</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
@@ -3170,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>814</v>
+        <v>722</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -3190,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3204,16 +3168,16 @@
         <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>811</v>
+        <v>719</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -3245,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>818</v>
+        <v>726</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -3265,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3288,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>816</v>
+        <v>724</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -3312,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -3335,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>817</v>
+        <v>725</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -3355,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3380,9 +3344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3410,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -3452,10 +3416,10 @@
         <v>217</v>
       </c>
       <c r="P1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="Q1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3496,13 +3460,13 @@
         <v>38</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P2" s="6" t="b">
         <v>1</v>
@@ -3555,7 +3519,7 @@
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -3608,7 +3572,7 @@
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -3661,7 +3625,7 @@
         <v>46</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P5" s="6" t="b">
         <v>1</v>
@@ -3711,7 +3675,7 @@
         <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -3764,7 +3728,7 @@
         <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -3814,10 +3778,10 @@
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>509</v>
+        <v>433</v>
       </c>
       <c r="O8" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -3867,7 +3831,7 @@
         <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -3920,7 +3884,7 @@
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -3949,7 +3913,7 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -3978,7 +3942,7 @@
         <v>76</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P12" s="6" t="b">
         <v>1</v>
@@ -4007,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -4036,7 +4000,7 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -4065,7 +4029,7 @@
         <v>76</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P15" s="6" t="b">
         <v>1</v>
@@ -4094,7 +4058,7 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -4123,7 +4087,7 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -4152,7 +4116,7 @@
         <v>76</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P18" s="6" t="b">
         <v>1</v>
@@ -4181,7 +4145,7 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -4210,7 +4174,7 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -4239,7 +4203,7 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -4268,7 +4232,7 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -4318,10 +4282,10 @@
         <v>39</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P23" s="6" t="b">
         <v>1</v>
@@ -4371,10 +4335,10 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O24" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -4424,10 +4388,10 @@
         <v>39</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P25" s="6" t="b">
         <v>1</v>
@@ -4480,7 +4444,7 @@
         <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -4530,7 +4494,7 @@
         <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -4580,7 +4544,7 @@
         <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -4633,7 +4597,7 @@
         <v>40</v>
       </c>
       <c r="O29" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -4686,7 +4650,7 @@
         <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -4739,7 +4703,7 @@
         <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -4789,10 +4753,10 @@
         <v>39</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P32" s="6" t="b">
         <v>1</v>
@@ -4842,10 +4806,10 @@
         <v>39</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P33" s="6" t="b">
         <v>1</v>
@@ -4895,10 +4859,10 @@
         <v>39</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P34" s="6" t="b">
         <v>1</v>
@@ -4948,10 +4912,10 @@
         <v>39</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P35" s="6" t="b">
         <v>1</v>
@@ -5001,10 +4965,10 @@
         <v>39</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P36" s="6" t="b">
         <v>1</v>
@@ -5054,10 +5018,10 @@
         <v>39</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P37" s="6" t="b">
         <v>1</v>
@@ -5107,10 +5071,10 @@
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O38" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -5160,10 +5124,10 @@
         <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O39" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -5213,10 +5177,10 @@
         <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O40" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -5233,16 +5197,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>505</v>
+        <v>429</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
@@ -5266,10 +5230,10 @@
         <v>39</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P41" s="6" t="b">
         <v>1</v>
@@ -5319,10 +5283,10 @@
         <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O42" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -5372,10 +5336,10 @@
         <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O43" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -5392,16 +5356,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -5425,10 +5389,10 @@
         <v>39</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P44" s="6" t="b">
         <v>1</v>
@@ -5478,10 +5442,10 @@
         <v>39</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P45" s="6" t="b">
         <v>1</v>
@@ -5498,13 +5462,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>261</v>
@@ -5528,10 +5492,10 @@
         <v>38</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>221</v>
@@ -5551,13 +5515,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>259</v>
@@ -5581,10 +5545,10 @@
         <v>38</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>221</v>
@@ -5604,13 +5568,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>519</v>
+        <v>443</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>260</v>
@@ -5634,10 +5598,10 @@
         <v>38</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>221</v>
@@ -5657,10 +5621,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>43</v>
@@ -5687,10 +5651,10 @@
         <v>45</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>221</v>
@@ -5710,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="D50" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
         <v>262</v>
@@ -5737,10 +5701,10 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N50" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O50" t="s">
         <v>221</v>
@@ -5760,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
         <v>227</v>
@@ -5810,13 +5774,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>510</v>
+        <v>434</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>344</v>
+        <v>727</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>256</v>
@@ -5840,13 +5804,13 @@
         <v>38</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P52" s="6" t="b">
         <v>1</v>
@@ -5863,16 +5827,16 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="D53" t="s">
-        <v>345</v>
+        <v>728</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="G53">
         <v>2.0724939000000001E-2</v>
@@ -5893,13 +5857,13 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N53" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -5916,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
-        <v>343</v>
+        <v>729</v>
       </c>
       <c r="F54" t="s">
         <v>257</v>
@@ -5943,13 +5907,13 @@
         <v>45</v>
       </c>
       <c r="M54" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N54" t="s">
         <v>39</v>
       </c>
       <c r="O54" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -5966,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>513</v>
+        <v>437</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>730</v>
       </c>
       <c r="F55" t="s">
         <v>258</v>
@@ -5993,13 +5957,13 @@
         <v>45</v>
       </c>
       <c r="M55" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N55" t="s">
         <v>39</v>
       </c>
       <c r="O55" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -6016,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s">
-        <v>347</v>
+        <v>731</v>
       </c>
       <c r="F56" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="G56">
         <v>-2.5155538000000002E-2</v>
@@ -6043,13 +6007,13 @@
         <v>45</v>
       </c>
       <c r="M56" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N56" t="s">
         <v>39</v>
       </c>
       <c r="O56" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
@@ -6066,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="D57" t="s">
-        <v>348</v>
+        <v>732</v>
       </c>
       <c r="F57" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="G57">
         <v>-2.9719634999999901E-2</v>
@@ -6093,13 +6057,13 @@
         <v>45</v>
       </c>
       <c r="M57" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N57" t="s">
         <v>39</v>
       </c>
       <c r="O57" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -6116,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="D58" t="s">
-        <v>349</v>
+        <v>733</v>
       </c>
       <c r="F58" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="G58">
         <v>-4.3979881999999998E-2</v>
@@ -6143,13 +6107,13 @@
         <v>45</v>
       </c>
       <c r="M58" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N58" t="s">
         <v>39</v>
       </c>
       <c r="O58" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -6166,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="D59" t="s">
-        <v>350</v>
+        <v>734</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="G59">
         <v>-6.0294765999999902E-2</v>
@@ -6193,13 +6157,13 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N59" t="s">
         <v>39</v>
       </c>
       <c r="O59" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
@@ -6216,13 +6180,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>524</v>
+        <v>448</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>735</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
         <v>228</v>
@@ -6246,13 +6210,13 @@
         <v>38</v>
       </c>
       <c r="M60" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N60" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O60" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
@@ -6269,13 +6233,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>736</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F61" t="s">
         <v>229</v>
@@ -6299,13 +6263,13 @@
         <v>38</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N61" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O61" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -6322,13 +6286,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>526</v>
+        <v>450</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>265</v>
+        <v>737</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>230</v>
@@ -6352,13 +6316,13 @@
         <v>38</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P62" s="6" t="b">
         <v>1</v>
@@ -6375,13 +6339,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>527</v>
+        <v>451</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>738</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F63" t="s">
         <v>231</v>
@@ -6405,13 +6369,13 @@
         <v>38</v>
       </c>
       <c r="M63" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N63" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -6428,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>739</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F64" t="s">
         <v>232</v>
@@ -6458,13 +6422,13 @@
         <v>38</v>
       </c>
       <c r="M64" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N64" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O64" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
@@ -6481,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>740</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F65" t="s">
         <v>233</v>
@@ -6511,13 +6475,13 @@
         <v>38</v>
       </c>
       <c r="M65" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N65" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O65" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -6534,13 +6498,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>530</v>
+        <v>454</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>741</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F66" t="s">
         <v>234</v>
@@ -6564,13 +6528,13 @@
         <v>38</v>
       </c>
       <c r="M66" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N66" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O66" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -6587,13 +6551,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>742</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F67" t="s">
         <v>235</v>
@@ -6617,13 +6581,13 @@
         <v>38</v>
       </c>
       <c r="M67" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N67" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O67" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -6640,13 +6604,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="D68" t="s">
-        <v>271</v>
+        <v>743</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F68" t="s">
         <v>236</v>
@@ -6670,13 +6634,13 @@
         <v>38</v>
       </c>
       <c r="M68" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N68" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O68" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -6693,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>744</v>
       </c>
       <c r="E69" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F69" t="s">
         <v>237</v>
@@ -6723,13 +6687,13 @@
         <v>38</v>
       </c>
       <c r="M69" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N69" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O69" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -6746,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>745</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F70" t="s">
         <v>238</v>
@@ -6776,13 +6740,13 @@
         <v>38</v>
       </c>
       <c r="M70" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N70" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O70" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -6799,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>746</v>
       </c>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
         <v>239</v>
@@ -6829,13 +6793,13 @@
         <v>38</v>
       </c>
       <c r="M71" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N71" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O71" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -6852,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>747</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s">
         <v>240</v>
@@ -6882,13 +6846,13 @@
         <v>38</v>
       </c>
       <c r="M72" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N72" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O72" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -6905,13 +6869,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>551</v>
+        <v>748</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>241</v>
@@ -6935,13 +6899,13 @@
         <v>38</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P73" s="6" t="b">
         <v>1</v>
@@ -6958,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>749</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
         <v>242</v>
@@ -6988,13 +6952,13 @@
         <v>38</v>
       </c>
       <c r="M74" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N74" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O74" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -7011,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>750</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F75" t="s">
         <v>243</v>
@@ -7041,13 +7005,13 @@
         <v>38</v>
       </c>
       <c r="M75" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N75" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O75" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -7064,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>751</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F76" t="s">
         <v>244</v>
@@ -7094,13 +7058,13 @@
         <v>38</v>
       </c>
       <c r="M76" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N76" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O76" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -7117,13 +7081,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>752</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
         <v>245</v>
@@ -7147,13 +7111,13 @@
         <v>38</v>
       </c>
       <c r="M77" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N77" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O77" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
@@ -7170,13 +7134,13 @@
         <v>1</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>280</v>
+        <v>753</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>246</v>
@@ -7200,13 +7164,13 @@
         <v>38</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P78" s="6" t="b">
         <v>1</v>
@@ -7223,13 +7187,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>754</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s">
         <v>247</v>
@@ -7253,13 +7217,13 @@
         <v>38</v>
       </c>
       <c r="M79" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N79" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O79" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -7276,13 +7240,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>544</v>
+        <v>468</v>
       </c>
       <c r="D80" t="s">
-        <v>282</v>
+        <v>755</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F80" t="s">
         <v>248</v>
@@ -7306,13 +7270,13 @@
         <v>38</v>
       </c>
       <c r="M80" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N80" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O80" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
@@ -7329,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>545</v>
+        <v>469</v>
       </c>
       <c r="D81" t="s">
+        <v>756</v>
+      </c>
+      <c r="E81" t="s">
         <v>283</v>
-      </c>
-      <c r="E81" t="s">
-        <v>309</v>
       </c>
       <c r="F81" t="s">
         <v>249</v>
@@ -7359,13 +7323,13 @@
         <v>38</v>
       </c>
       <c r="M81" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N81" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O81" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
@@ -7382,13 +7346,13 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>546</v>
+        <v>470</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>757</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F82" t="s">
         <v>250</v>
@@ -7412,13 +7376,13 @@
         <v>38</v>
       </c>
       <c r="M82" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N82" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O82" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
@@ -7435,13 +7399,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>758</v>
       </c>
       <c r="E83" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F83" t="s">
         <v>251</v>
@@ -7465,13 +7429,13 @@
         <v>38</v>
       </c>
       <c r="M83" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N83" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O83" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
@@ -7488,13 +7452,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>759</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F84" t="s">
         <v>252</v>
@@ -7518,13 +7482,13 @@
         <v>38</v>
       </c>
       <c r="M84" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N84" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O84" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
@@ -7541,13 +7505,13 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>760</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F85" t="s">
         <v>253</v>
@@ -7571,13 +7535,13 @@
         <v>38</v>
       </c>
       <c r="M85" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N85" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O85" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
@@ -7594,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>761</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F86" t="s">
         <v>254</v>
@@ -7624,13 +7588,13 @@
         <v>38</v>
       </c>
       <c r="M86" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N86" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O86" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
@@ -7647,16 +7611,16 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="D87" t="s">
-        <v>464</v>
+        <v>762</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F87" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G87">
         <v>-383.70118845500798</v>
@@ -7680,10 +7644,10 @@
         <v>39</v>
       </c>
       <c r="N87" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O87" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
@@ -7700,16 +7664,16 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="D88" t="s">
-        <v>465</v>
+        <v>764</v>
       </c>
       <c r="E88" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F88" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G88">
         <v>-615.106592401851</v>
@@ -7733,10 +7697,10 @@
         <v>39</v>
       </c>
       <c r="N88" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O88" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
@@ -7753,16 +7717,16 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>466</v>
+        <v>765</v>
       </c>
       <c r="E89" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F89" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G89">
         <v>-478.49462365591398</v>
@@ -7786,10 +7750,10 @@
         <v>39</v>
       </c>
       <c r="N89" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O89" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
@@ -7806,16 +7770,16 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="D90" t="s">
-        <v>467</v>
+        <v>766</v>
       </c>
       <c r="E90" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F90" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G90">
         <v>-396.388888888888</v>
@@ -7839,10 +7803,10 @@
         <v>39</v>
       </c>
       <c r="N90" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O90" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
@@ -7859,16 +7823,16 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="D91" t="s">
-        <v>468</v>
+        <v>767</v>
       </c>
       <c r="E91" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="G91">
         <v>-219.072580645161</v>
@@ -7892,10 +7856,10 @@
         <v>39</v>
       </c>
       <c r="N91" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O91" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
@@ -7912,16 +7876,16 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>469</v>
+        <v>768</v>
       </c>
       <c r="E92" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="G92">
         <v>-222.52380952380901</v>
@@ -7945,10 +7909,10 @@
         <v>39</v>
       </c>
       <c r="N92" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O92" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
@@ -7965,16 +7929,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="D93" t="s">
-        <v>470</v>
+        <v>769</v>
       </c>
       <c r="E93" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F93" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="G93">
         <v>-295.20430107526801</v>
@@ -7998,10 +7962,10 @@
         <v>39</v>
       </c>
       <c r="N93" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O93" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
@@ -8018,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="D94" t="s">
-        <v>471</v>
+        <v>770</v>
       </c>
       <c r="E94" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F94" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="G94">
         <v>-254.03225806451599</v>
@@ -8051,10 +8015,10 @@
         <v>39</v>
       </c>
       <c r="N94" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O94" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
@@ -8071,16 +8035,16 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>472</v>
+        <v>771</v>
       </c>
       <c r="E95" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F95" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="G95">
         <v>-356.48888888888803</v>
@@ -8104,10 +8068,10 @@
         <v>39</v>
       </c>
       <c r="N95" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O95" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
@@ -8124,16 +8088,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="D96" t="s">
-        <v>473</v>
+        <v>772</v>
       </c>
       <c r="E96" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="G96">
         <v>-123.569892473118</v>
@@ -8157,10 +8121,10 @@
         <v>39</v>
       </c>
       <c r="N96" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O96" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
@@ -8177,16 +8141,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="D97" t="s">
-        <v>474</v>
+        <v>773</v>
       </c>
       <c r="E97" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F97" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="G97">
         <v>-212.11250000000001</v>
@@ -8210,10 +8174,10 @@
         <v>39</v>
       </c>
       <c r="N97" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O97" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
@@ -8230,16 +8194,16 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="D98" t="s">
-        <v>475</v>
+        <v>763</v>
       </c>
       <c r="E98" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F98" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="G98">
         <v>-504.84101382488399</v>
@@ -8263,10 +8227,10 @@
         <v>39</v>
       </c>
       <c r="N98" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O98" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
@@ -8283,16 +8247,16 @@
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>476</v>
+        <v>774</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="G99" s="6">
         <v>-277.07414874551898</v>
@@ -8316,10 +8280,10 @@
         <v>39</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="P99" s="6" t="b">
         <v>1</v>
@@ -8336,16 +8300,16 @@
         <v>1</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>477</v>
+        <v>775</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="G100" s="6">
         <v>-302.95016990178198</v>
@@ -8369,10 +8333,10 @@
         <v>39</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="P100" s="6" t="b">
         <v>1</v>
@@ -8389,16 +8353,16 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>478</v>
+        <v>776</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="G101" s="6">
         <v>-224.39180747567801</v>
@@ -8422,10 +8386,10 @@
         <v>39</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="P101" s="6" t="b">
         <v>1</v>
@@ -8442,16 +8406,16 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>479</v>
+        <v>777</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="G102" s="6">
         <v>-540.53406893903298</v>
@@ -8475,10 +8439,10 @@
         <v>39</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="P102" s="6" t="b">
         <v>1</v>
@@ -8495,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="D103" t="s">
-        <v>480</v>
+        <v>778</v>
       </c>
       <c r="E103" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F103" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="G103">
         <v>-120.454545454545</v>
@@ -8528,10 +8492,10 @@
         <v>39</v>
       </c>
       <c r="N103" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O103" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
@@ -8548,16 +8512,16 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="D104" t="s">
-        <v>481</v>
+        <v>779</v>
       </c>
       <c r="E104" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="G104">
         <v>-104.571428571428</v>
@@ -8581,10 +8545,10 @@
         <v>39</v>
       </c>
       <c r="N104" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O104" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
@@ -8601,16 +8565,16 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="D105" t="s">
-        <v>482</v>
+        <v>780</v>
       </c>
       <c r="E105" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F105" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="G105">
         <v>-112.5</v>
@@ -8634,10 +8598,10 @@
         <v>39</v>
       </c>
       <c r="N105" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O105" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
@@ -8654,16 +8618,16 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>483</v>
+        <v>781</v>
       </c>
       <c r="E106" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F106" t="s">
-        <v>494</v>
+        <v>418</v>
       </c>
       <c r="G106">
         <v>-153.583333333333</v>
@@ -8687,10 +8651,10 @@
         <v>39</v>
       </c>
       <c r="N106" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O106" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
@@ -8707,16 +8671,16 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="D107" t="s">
-        <v>484</v>
+        <v>782</v>
       </c>
       <c r="E107" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F107" t="s">
-        <v>495</v>
+        <v>419</v>
       </c>
       <c r="G107">
         <v>-170.555555555555</v>
@@ -8740,10 +8704,10 @@
         <v>39</v>
       </c>
       <c r="N107" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O107" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
@@ -8760,16 +8724,16 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D108" t="s">
-        <v>485</v>
+        <v>783</v>
       </c>
       <c r="E108" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F108" t="s">
-        <v>496</v>
+        <v>420</v>
       </c>
       <c r="G108">
         <v>-251.25</v>
@@ -8793,10 +8757,10 @@
         <v>39</v>
       </c>
       <c r="N108" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O108" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
@@ -8813,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="D109" t="s">
-        <v>486</v>
+        <v>784</v>
       </c>
       <c r="E109" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F109" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="G109">
         <v>-400</v>
@@ -8846,10 +8810,10 @@
         <v>39</v>
       </c>
       <c r="N109" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O109" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
@@ -8866,16 +8830,16 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="D110" t="s">
-        <v>487</v>
+        <v>785</v>
       </c>
       <c r="E110" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F110" t="s">
-        <v>498</v>
+        <v>422</v>
       </c>
       <c r="G110">
         <v>-360</v>
@@ -8899,10 +8863,10 @@
         <v>39</v>
       </c>
       <c r="N110" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O110" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
@@ -8919,16 +8883,16 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>786</v>
       </c>
       <c r="E111" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F111" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="G111">
         <v>-358.33333333333297</v>
@@ -8952,10 +8916,10 @@
         <v>39</v>
       </c>
       <c r="N111" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O111" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
@@ -8972,16 +8936,16 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
-        <v>489</v>
+        <v>787</v>
       </c>
       <c r="E112" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F112" t="s">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="G112">
         <v>-658.33333333333303</v>
@@ -9005,10 +8969,10 @@
         <v>39</v>
       </c>
       <c r="N112" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O112" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -9025,16 +8989,16 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="D113" t="s">
-        <v>490</v>
+        <v>788</v>
       </c>
       <c r="E113" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F113" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="G113">
         <v>-1900</v>
@@ -9058,10 +9022,10 @@
         <v>39</v>
       </c>
       <c r="N113" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O113" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -9078,16 +9042,16 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="D114" t="s">
-        <v>413</v>
+        <v>789</v>
       </c>
       <c r="E114" t="s">
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="G114">
         <v>-30.3761250986623</v>
@@ -9111,10 +9075,10 @@
         <v>39</v>
       </c>
       <c r="N114" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O114" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -9131,16 +9095,16 @@
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>414</v>
+        <v>790</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="G115" s="6">
         <v>-34.052812673880602</v>
@@ -9164,10 +9128,10 @@
         <v>39</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O115" s="6" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="P115" s="6" t="b">
         <v>1</v>
@@ -9184,16 +9148,16 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
-        <v>415</v>
+        <v>791</v>
       </c>
       <c r="E116" t="s">
         <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="G116">
         <v>-55.5592887949906</v>
@@ -9217,10 +9181,10 @@
         <v>39</v>
       </c>
       <c r="N116" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O116" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
@@ -9237,16 +9201,16 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="D117" t="s">
-        <v>416</v>
+        <v>792</v>
       </c>
       <c r="E117" t="s">
         <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="G117">
         <v>-31.005671682773698</v>
@@ -9270,10 +9234,10 @@
         <v>39</v>
       </c>
       <c r="N117" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O117" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
@@ -9290,16 +9254,16 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>417</v>
+        <v>793</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="G118" s="6">
         <v>-35.175940089496002</v>
@@ -9323,10 +9287,10 @@
         <v>39</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O118" s="6" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P118" s="6" t="b">
         <v>1</v>
@@ -9343,16 +9307,16 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="D119" t="s">
-        <v>418</v>
+        <v>794</v>
       </c>
       <c r="E119" t="s">
         <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="G119">
         <v>-41.9430750314541</v>
@@ -9376,10 +9340,10 @@
         <v>39</v>
       </c>
       <c r="N119" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O119" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
@@ -9396,16 +9360,16 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="D120" t="s">
-        <v>419</v>
+        <v>795</v>
       </c>
       <c r="E120" t="s">
         <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="G120">
         <v>-32.475781703401204</v>
@@ -9429,10 +9393,10 @@
         <v>39</v>
       </c>
       <c r="N120" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O120" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
@@ -9449,16 +9413,16 @@
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>420</v>
+        <v>797</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="G121" s="6">
         <v>-34.621899984899798</v>
@@ -9482,10 +9446,10 @@
         <v>39</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P121" s="6" t="b">
         <v>1</v>
@@ -9502,16 +9466,16 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="D122" t="s">
-        <v>421</v>
+        <v>796</v>
       </c>
       <c r="E122" t="s">
         <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="G122">
         <v>-42.481728488661702</v>
@@ -9535,10 +9499,10 @@
         <v>39</v>
       </c>
       <c r="N122" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O122" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
@@ -9555,16 +9519,16 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="D123" t="s">
-        <v>422</v>
+        <v>798</v>
       </c>
       <c r="E123" t="s">
         <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="G123">
         <v>-30.713211870273401</v>
@@ -9588,10 +9552,10 @@
         <v>39</v>
       </c>
       <c r="N123" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O123" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
@@ -9608,16 +9572,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>423</v>
+        <v>799</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="G124" s="6">
         <v>-38.716340811666299</v>
@@ -9641,10 +9605,10 @@
         <v>39</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O124" s="6" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P124" s="6" t="b">
         <v>1</v>
@@ -9661,16 +9625,16 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="D125" t="s">
-        <v>424</v>
+        <v>800</v>
       </c>
       <c r="E125" t="s">
         <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="G125">
         <v>-54.677666118249803</v>
@@ -9694,10 +9658,10 @@
         <v>39</v>
       </c>
       <c r="N125" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O125" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
@@ -9714,16 +9678,16 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="D126" t="s">
-        <v>425</v>
+        <v>801</v>
       </c>
       <c r="E126" t="s">
         <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="G126">
         <v>-36.067928906154499</v>
@@ -9747,10 +9711,10 @@
         <v>39</v>
       </c>
       <c r="N126" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O126" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
@@ -9767,16 +9731,16 @@
         <v>1</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>426</v>
+        <v>802</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="G127" s="6">
         <v>-35.402571699335702</v>
@@ -9800,10 +9764,10 @@
         <v>39</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P127" s="6" t="b">
         <v>1</v>
@@ -9820,16 +9784,16 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="D128" t="s">
-        <v>427</v>
+        <v>803</v>
       </c>
       <c r="E128" t="s">
         <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="G128">
         <v>-40.488429459570398</v>
@@ -9853,10 +9817,10 @@
         <v>39</v>
       </c>
       <c r="N128" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O128" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
@@ -10592,13 +10556,13 @@
         <v>38</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="O142" s="6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P142" s="6" t="b">
         <v>1</v>
@@ -10651,7 +10615,7 @@
         <v>46</v>
       </c>
       <c r="O143" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P143" t="b">
         <v>1</v>
@@ -10704,7 +10668,7 @@
         <v>46</v>
       </c>
       <c r="O144" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P144" t="b">
         <v>1</v>
@@ -10757,7 +10721,7 @@
         <v>46</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P145" s="6" t="b">
         <v>1</v>
@@ -10807,7 +10771,7 @@
         <v>40</v>
       </c>
       <c r="O146" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
@@ -10860,7 +10824,7 @@
         <v>39</v>
       </c>
       <c r="O147" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
@@ -10910,10 +10874,10 @@
         <v>39</v>
       </c>
       <c r="N148" t="s">
-        <v>509</v>
+        <v>433</v>
       </c>
       <c r="O148" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P148" t="b">
         <v>1</v>
@@ -10963,7 +10927,7 @@
         <v>39</v>
       </c>
       <c r="O149" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P149" t="b">
         <v>1</v>
@@ -11010,13 +10974,13 @@
         <v>38</v>
       </c>
       <c r="M150" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N150" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O150" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="P150" t="b">
         <v>1</v>
@@ -11045,7 +11009,7 @@
         <v>76</v>
       </c>
       <c r="O151" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
@@ -11074,7 +11038,7 @@
         <v>76</v>
       </c>
       <c r="O152" s="6" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P152" s="6" t="b">
         <v>1</v>
@@ -11103,7 +11067,7 @@
         <v>76</v>
       </c>
       <c r="O153" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
@@ -11132,7 +11096,7 @@
         <v>76</v>
       </c>
       <c r="O154" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
@@ -11161,7 +11125,7 @@
         <v>76</v>
       </c>
       <c r="O155" s="6" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P155" s="6" t="b">
         <v>1</v>
@@ -11190,7 +11154,7 @@
         <v>76</v>
       </c>
       <c r="O156" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
@@ -11219,7 +11183,7 @@
         <v>76</v>
       </c>
       <c r="O157" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
@@ -11248,7 +11212,7 @@
         <v>76</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P158" s="6" t="b">
         <v>1</v>
@@ -11277,7 +11241,7 @@
         <v>76</v>
       </c>
       <c r="O159" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
@@ -11306,7 +11270,7 @@
         <v>76</v>
       </c>
       <c r="O160" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
@@ -11335,7 +11299,7 @@
         <v>76</v>
       </c>
       <c r="O161" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
@@ -11364,7 +11328,7 @@
         <v>76</v>
       </c>
       <c r="O162" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
@@ -11414,10 +11378,10 @@
         <v>39</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O163" s="6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P163" s="6" t="b">
         <v>1</v>
@@ -11467,10 +11431,10 @@
         <v>39</v>
       </c>
       <c r="N164" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O164" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
@@ -11520,10 +11484,10 @@
         <v>39</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P165" s="6" t="b">
         <v>1</v>
@@ -11576,7 +11540,7 @@
         <v>39</v>
       </c>
       <c r="O166" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
@@ -11626,7 +11590,7 @@
         <v>46</v>
       </c>
       <c r="O167" s="6" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P167" s="6" t="b">
         <v>1</v>
@@ -11676,7 +11640,7 @@
         <v>46</v>
       </c>
       <c r="O168" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P168" t="b">
         <v>1</v>
@@ -11729,7 +11693,7 @@
         <v>40</v>
       </c>
       <c r="O169" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
@@ -11782,7 +11746,7 @@
         <v>40</v>
       </c>
       <c r="O170" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P170" t="b">
         <v>1</v>
@@ -11835,7 +11799,7 @@
         <v>39</v>
       </c>
       <c r="O171" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="P171" t="b">
         <v>1</v>
@@ -11885,10 +11849,10 @@
         <v>39</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P172" s="6" t="b">
         <v>1</v>
@@ -11938,10 +11902,10 @@
         <v>39</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P173" s="6" t="b">
         <v>1</v>
@@ -11991,10 +11955,10 @@
         <v>39</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O174" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P174" s="6" t="b">
         <v>1</v>
@@ -12044,10 +12008,10 @@
         <v>39</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O175" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P175" s="6" t="b">
         <v>1</v>
@@ -12097,10 +12061,10 @@
         <v>39</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O176" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P176" s="6" t="b">
         <v>1</v>
@@ -12150,10 +12114,10 @@
         <v>39</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O177" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P177" s="6" t="b">
         <v>1</v>
@@ -12203,10 +12167,10 @@
         <v>39</v>
       </c>
       <c r="N178" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O178" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P178" t="b">
         <v>1</v>
@@ -12256,10 +12220,10 @@
         <v>39</v>
       </c>
       <c r="N179" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O179" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P179" t="b">
         <v>1</v>
@@ -12309,10 +12273,10 @@
         <v>39</v>
       </c>
       <c r="N180" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O180" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P180" t="b">
         <v>1</v>
@@ -12329,16 +12293,16 @@
         <v>1</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>505</v>
+        <v>429</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
@@ -12362,10 +12326,10 @@
         <v>39</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O181" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P181" s="6" t="b">
         <v>1</v>
@@ -12415,10 +12379,10 @@
         <v>39</v>
       </c>
       <c r="N182" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O182" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P182" t="b">
         <v>1</v>
@@ -12468,10 +12432,10 @@
         <v>39</v>
       </c>
       <c r="N183" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O183" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P183" t="b">
         <v>1</v>
@@ -12488,16 +12452,16 @@
         <v>1</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="G184" s="6">
         <v>0</v>
@@ -12521,10 +12485,10 @@
         <v>39</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P184" s="6" t="b">
         <v>1</v>
@@ -12574,10 +12538,10 @@
         <v>39</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="O185" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P185" s="6" t="b">
         <v>1</v>
@@ -12594,16 +12558,16 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="D186" t="s">
-        <v>557</v>
+        <v>804</v>
       </c>
       <c r="E186" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F186" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="G186" s="5">
         <v>5.3400000000000002E-10</v>
@@ -12624,13 +12588,13 @@
         <v>38</v>
       </c>
       <c r="M186" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N186" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O186" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P186" t="b">
         <v>1</v>
@@ -12647,16 +12611,16 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="D187" t="s">
-        <v>558</v>
+        <v>739</v>
       </c>
       <c r="E187" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F187" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="G187">
         <v>1.68E-9</v>
@@ -12677,13 +12641,13 @@
         <v>38</v>
       </c>
       <c r="M187" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N187" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O187" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P187" t="b">
         <v>1</v>
@@ -12700,16 +12664,16 @@
         <v>1</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>559</v>
+        <v>742</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="G188" s="6">
         <v>1.14E-8</v>
@@ -12730,13 +12694,13 @@
         <v>38</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P188" s="6" t="b">
         <v>1</v>
@@ -12753,16 +12717,16 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="D189" t="s">
-        <v>560</v>
+        <v>743</v>
       </c>
       <c r="E189" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F189" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="G189">
         <v>2.7800000000000001E-8</v>
@@ -12783,13 +12747,13 @@
         <v>38</v>
       </c>
       <c r="M189" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N189" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O189" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P189" t="b">
         <v>1</v>
@@ -12806,16 +12770,16 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="D190" t="s">
-        <v>561</v>
+        <v>744</v>
       </c>
       <c r="E190" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F190" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="G190">
         <v>8.6900000000000004E-8</v>
@@ -12836,13 +12800,13 @@
         <v>38</v>
       </c>
       <c r="M190" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N190" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O190" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P190" t="b">
         <v>1</v>
@@ -12859,16 +12823,16 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="D191" t="s">
-        <v>562</v>
+        <v>746</v>
       </c>
       <c r="E191" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F191" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="G191">
         <v>2.3999999999999998E-7</v>
@@ -12889,13 +12853,13 @@
         <v>38</v>
       </c>
       <c r="M191" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N191" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O191" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P191" t="b">
         <v>1</v>
@@ -12912,16 +12876,16 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="D192" t="s">
-        <v>563</v>
+        <v>747</v>
       </c>
       <c r="E192" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F192" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="G192">
         <v>7.0699999999999996E-7</v>
@@ -12942,13 +12906,13 @@
         <v>38</v>
       </c>
       <c r="M192" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N192" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O192" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P192" t="b">
         <v>1</v>
@@ -12965,16 +12929,16 @@
         <v>1</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>564</v>
+        <v>805</v>
       </c>
       <c r="E193" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="G193" s="6">
         <v>2.1600000000000001E-6</v>
@@ -12995,13 +12959,13 @@
         <v>38</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P193" s="6" t="b">
         <v>1</v>
@@ -13018,16 +12982,16 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
       <c r="D194" t="s">
-        <v>565</v>
+        <v>749</v>
       </c>
       <c r="E194" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F194" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="G194">
         <v>6.4400000000000002E-6</v>
@@ -13048,13 +13012,13 @@
         <v>38</v>
       </c>
       <c r="M194" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N194" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O194" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P194" t="b">
         <v>1</v>
@@ -13071,16 +13035,16 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="D195" t="s">
-        <v>566</v>
+        <v>750</v>
       </c>
       <c r="E195" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F195" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="G195">
         <v>1.9000000000000001E-5</v>
@@ -13101,13 +13065,13 @@
         <v>38</v>
       </c>
       <c r="M195" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N195" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O195" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P195" t="b">
         <v>1</v>
@@ -13124,16 +13088,16 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D196" t="s">
-        <v>567</v>
+        <v>752</v>
       </c>
       <c r="E196" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F196" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="G196">
         <v>5.6499999999999998E-5</v>
@@ -13154,13 +13118,13 @@
         <v>38</v>
       </c>
       <c r="M196" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N196" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O196" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P196" t="b">
         <v>1</v>
@@ -13177,16 +13141,16 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="D197" t="s">
-        <v>568</v>
+        <v>753</v>
       </c>
       <c r="E197" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F197" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="G197">
         <v>2.0699999999999999E-4</v>
@@ -13207,13 +13171,13 @@
         <v>38</v>
       </c>
       <c r="M197" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N197" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O197" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P197" t="b">
         <v>1</v>
@@ -13230,16 +13194,16 @@
         <v>1</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>569</v>
+        <v>754</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="G198" s="6">
         <v>3.9100000000000002E-4</v>
@@ -13260,13 +13224,13 @@
         <v>38</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P198" s="6" t="b">
         <v>1</v>
@@ -13283,16 +13247,16 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>546</v>
+        <v>470</v>
       </c>
       <c r="D199" t="s">
-        <v>570</v>
+        <v>757</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F199" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="G199">
         <v>1.5399999999999999E-3</v>
@@ -13313,13 +13277,13 @@
         <v>38</v>
       </c>
       <c r="M199" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N199" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O199" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P199" t="b">
         <v>1</v>
@@ -13336,16 +13300,16 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="D200" t="s">
-        <v>571</v>
+        <v>806</v>
       </c>
       <c r="E200" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F200" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="G200">
         <v>4.5300000000000002E-3</v>
@@ -13366,13 +13330,13 @@
         <v>38</v>
       </c>
       <c r="M200" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="N200" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="O200" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="P200" t="b">
         <v>1</v>
@@ -14097,10 +14061,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>579</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>580</v>
+        <v>488</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -14114,10 +14078,10 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14128,10 +14092,10 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>489</v>
       </c>
       <c r="D3" t="s">
-        <v>724</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14142,10 +14106,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="D4" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14156,10 +14120,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>501</v>
       </c>
       <c r="D5" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14170,10 +14134,10 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s">
-        <v>727</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14184,10 +14148,10 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>728</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14198,10 +14162,10 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
-        <v>729</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -14212,10 +14176,10 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>730</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -14226,10 +14190,10 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -14240,10 +14204,10 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="D11" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -14254,10 +14218,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>588</v>
+        <v>496</v>
       </c>
       <c r="D12" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -14268,10 +14232,10 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>587</v>
+        <v>495</v>
       </c>
       <c r="D13" t="s">
-        <v>734</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -14282,10 +14246,10 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>584</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
-        <v>735</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -14296,10 +14260,10 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>582</v>
+        <v>490</v>
       </c>
       <c r="D15" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -14310,10 +14274,10 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>595</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -14324,10 +14288,10 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>596</v>
+        <v>504</v>
       </c>
       <c r="D17" t="s">
-        <v>724</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -14338,10 +14302,10 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>597</v>
+        <v>505</v>
       </c>
       <c r="D18" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -14352,10 +14316,10 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>598</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -14366,10 +14330,10 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>599</v>
+        <v>507</v>
       </c>
       <c r="D20" t="s">
-        <v>727</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -14380,10 +14344,10 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="D21" t="s">
-        <v>728</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -14394,10 +14358,10 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="D22" t="s">
-        <v>729</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -14408,10 +14372,10 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="D23" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -14422,10 +14386,10 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>603</v>
+        <v>511</v>
       </c>
       <c r="D24" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -14436,10 +14400,10 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>604</v>
+        <v>512</v>
       </c>
       <c r="D25" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -14450,10 +14414,10 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="D26" t="s">
-        <v>737</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -14464,10 +14428,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>606</v>
+        <v>514</v>
       </c>
       <c r="D27" t="s">
-        <v>738</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -14478,10 +14442,10 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>607</v>
+        <v>515</v>
       </c>
       <c r="D28" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -14492,10 +14456,10 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>574</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
-        <v>739</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -14506,10 +14470,10 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>578</v>
+        <v>486</v>
       </c>
       <c r="D30" t="s">
-        <v>740</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -14520,10 +14484,10 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D31" t="s">
-        <v>741</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -14534,10 +14498,10 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>577</v>
+        <v>485</v>
       </c>
       <c r="D32" t="s">
-        <v>742</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -14548,10 +14512,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>573</v>
+        <v>481</v>
       </c>
       <c r="D33" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -14562,10 +14526,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>575</v>
+        <v>483</v>
       </c>
       <c r="D34" t="s">
-        <v>744</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -14576,10 +14540,10 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="D35" t="s">
-        <v>745</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -14590,10 +14554,10 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="D36" t="s">
-        <v>746</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -14604,10 +14568,10 @@
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>610</v>
+        <v>518</v>
       </c>
       <c r="D37" t="s">
-        <v>747</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -14618,10 +14582,10 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>611</v>
+        <v>519</v>
       </c>
       <c r="D38" t="s">
-        <v>748</v>
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -14632,10 +14596,10 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>612</v>
+        <v>520</v>
       </c>
       <c r="D39" t="s">
-        <v>749</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -14646,10 +14610,10 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>613</v>
+        <v>521</v>
       </c>
       <c r="D40" t="s">
-        <v>750</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -14660,10 +14624,10 @@
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>614</v>
+        <v>522</v>
       </c>
       <c r="D41" t="s">
-        <v>751</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -14674,10 +14638,10 @@
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>615</v>
+        <v>523</v>
       </c>
       <c r="D42" t="s">
-        <v>752</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -14688,10 +14652,10 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>616</v>
+        <v>524</v>
       </c>
       <c r="D43" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -14702,10 +14666,10 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="D44" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -14716,10 +14680,10 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>618</v>
+        <v>526</v>
       </c>
       <c r="D45" t="s">
-        <v>755</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -14730,10 +14694,10 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="D46" t="s">
-        <v>756</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -14744,10 +14708,10 @@
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>620</v>
+        <v>528</v>
       </c>
       <c r="D47" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -14758,10 +14722,10 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>621</v>
+        <v>529</v>
       </c>
       <c r="D48" t="s">
-        <v>758</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -14772,10 +14736,10 @@
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>622</v>
+        <v>530</v>
       </c>
       <c r="D49" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -14786,10 +14750,10 @@
         <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="D50" t="s">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -14800,10 +14764,10 @@
         <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="D51" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -14814,10 +14778,10 @@
         <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="D52" t="s">
-        <v>762</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -14828,10 +14792,10 @@
         <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>626</v>
+        <v>534</v>
       </c>
       <c r="D53" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -14842,10 +14806,10 @@
         <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>627</v>
+        <v>535</v>
       </c>
       <c r="D54" t="s">
-        <v>764</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -14856,10 +14820,10 @@
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>628</v>
+        <v>536</v>
       </c>
       <c r="D55" t="s">
-        <v>746</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -14870,10 +14834,10 @@
         <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>629</v>
+        <v>537</v>
       </c>
       <c r="D56" t="s">
-        <v>747</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -14884,10 +14848,10 @@
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>630</v>
+        <v>538</v>
       </c>
       <c r="D57" t="s">
-        <v>748</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -14898,10 +14862,10 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>631</v>
+        <v>539</v>
       </c>
       <c r="D58" t="s">
-        <v>749</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -14912,10 +14876,10 @@
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>632</v>
+        <v>540</v>
       </c>
       <c r="D59" t="s">
-        <v>750</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -14926,10 +14890,10 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>633</v>
+        <v>541</v>
       </c>
       <c r="D60" t="s">
-        <v>751</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -14940,10 +14904,10 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>634</v>
+        <v>542</v>
       </c>
       <c r="D61" t="s">
-        <v>752</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -14954,10 +14918,10 @@
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="D62" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -14968,10 +14932,10 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>636</v>
+        <v>544</v>
       </c>
       <c r="D63" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -14982,10 +14946,10 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>637</v>
+        <v>545</v>
       </c>
       <c r="D64" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -14996,10 +14960,10 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>638</v>
+        <v>546</v>
       </c>
       <c r="D65" t="s">
-        <v>758</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -15010,10 +14974,10 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>639</v>
+        <v>547</v>
       </c>
       <c r="D66" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -15024,10 +14988,10 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>640</v>
+        <v>548</v>
       </c>
       <c r="D67" t="s">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -15038,10 +15002,10 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D68" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -15052,10 +15016,10 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>642</v>
+        <v>550</v>
       </c>
       <c r="D69" t="s">
-        <v>762</v>
+        <v>670</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -15066,10 +15030,10 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>643</v>
+        <v>551</v>
       </c>
       <c r="D70" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -15080,10 +15044,10 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>644</v>
+        <v>552</v>
       </c>
       <c r="D71" t="s">
-        <v>764</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -15094,10 +15058,10 @@
         <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="D72" t="s">
-        <v>765</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -15108,10 +15072,10 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>653</v>
+        <v>561</v>
       </c>
       <c r="D73" t="s">
-        <v>766</v>
+        <v>674</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -15122,10 +15086,10 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="D74" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -15136,10 +15100,10 @@
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="D75" t="s">
-        <v>768</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -15150,10 +15114,10 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="D76" t="s">
-        <v>769</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -15164,10 +15128,10 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>657</v>
+        <v>565</v>
       </c>
       <c r="D77" t="s">
-        <v>770</v>
+        <v>678</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -15178,10 +15142,10 @@
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>658</v>
+        <v>566</v>
       </c>
       <c r="D78" t="s">
-        <v>771</v>
+        <v>679</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -15192,10 +15156,10 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>659</v>
+        <v>567</v>
       </c>
       <c r="D79" t="s">
-        <v>772</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -15206,10 +15170,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>660</v>
+        <v>568</v>
       </c>
       <c r="D80" t="s">
-        <v>773</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -15220,10 +15184,10 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="D81" t="s">
-        <v>774</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -15234,10 +15198,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>647</v>
+        <v>555</v>
       </c>
       <c r="D82" t="s">
-        <v>775</v>
+        <v>683</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -15248,10 +15212,10 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="D83" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -15262,10 +15226,10 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>649</v>
+        <v>557</v>
       </c>
       <c r="D84" t="s">
-        <v>777</v>
+        <v>685</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -15276,10 +15240,10 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>650</v>
+        <v>558</v>
       </c>
       <c r="D85" t="s">
-        <v>778</v>
+        <v>686</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -15290,10 +15254,10 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>559</v>
       </c>
       <c r="D86" t="s">
-        <v>779</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -15304,10 +15268,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>560</v>
       </c>
       <c r="D87" t="s">
-        <v>780</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -15318,10 +15282,10 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D88" t="s">
-        <v>781</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -15332,10 +15296,10 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="D89" t="s">
-        <v>782</v>
+        <v>690</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -15346,10 +15310,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="D90" t="s">
-        <v>783</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -15360,10 +15324,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>668</v>
+        <v>576</v>
       </c>
       <c r="D91" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -15374,10 +15338,10 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>669</v>
+        <v>577</v>
       </c>
       <c r="D92" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -15388,10 +15352,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="D93" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -15402,10 +15366,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>662</v>
+        <v>570</v>
       </c>
       <c r="D94" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -15416,10 +15380,10 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>663</v>
+        <v>571</v>
       </c>
       <c r="D95" t="s">
-        <v>788</v>
+        <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -15430,10 +15394,10 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>664</v>
+        <v>572</v>
       </c>
       <c r="D96" t="s">
-        <v>789</v>
+        <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -15444,10 +15408,10 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>673</v>
+        <v>581</v>
       </c>
       <c r="D97" t="s">
-        <v>781</v>
+        <v>689</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -15458,10 +15422,10 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>674</v>
+        <v>582</v>
       </c>
       <c r="D98" t="s">
-        <v>782</v>
+        <v>690</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -15472,10 +15436,10 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>675</v>
+        <v>583</v>
       </c>
       <c r="D99" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -15486,10 +15450,10 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>676</v>
+        <v>584</v>
       </c>
       <c r="D100" t="s">
-        <v>790</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -15500,10 +15464,10 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="D101" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -15514,10 +15478,10 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>671</v>
+        <v>579</v>
       </c>
       <c r="D102" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -15528,10 +15492,10 @@
         <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="D103" t="s">
-        <v>789</v>
+        <v>697</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -15542,10 +15506,10 @@
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>677</v>
+        <v>585</v>
       </c>
       <c r="D104" t="s">
-        <v>791</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -15556,10 +15520,10 @@
         <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>678</v>
+        <v>586</v>
       </c>
       <c r="D105" t="s">
-        <v>792</v>
+        <v>700</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -15570,10 +15534,10 @@
         <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>679</v>
+        <v>587</v>
       </c>
       <c r="D106" t="s">
-        <v>793</v>
+        <v>701</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -15584,10 +15548,10 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>680</v>
+        <v>588</v>
       </c>
       <c r="D107" t="s">
-        <v>794</v>
+        <v>702</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -15598,10 +15562,10 @@
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>681</v>
+        <v>589</v>
       </c>
       <c r="D108" t="s">
-        <v>795</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -15612,10 +15576,10 @@
         <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>682</v>
+        <v>590</v>
       </c>
       <c r="D109" t="s">
-        <v>796</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -15626,10 +15590,10 @@
         <v>98</v>
       </c>
       <c r="C110" t="s">
-        <v>683</v>
+        <v>591</v>
       </c>
       <c r="D110" t="s">
-        <v>797</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -15640,10 +15604,10 @@
         <v>98</v>
       </c>
       <c r="C111" t="s">
-        <v>684</v>
+        <v>592</v>
       </c>
       <c r="D111" t="s">
-        <v>798</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -15654,10 +15618,10 @@
         <v>98</v>
       </c>
       <c r="C112" t="s">
-        <v>685</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s">
-        <v>799</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -15668,10 +15632,10 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>686</v>
+        <v>594</v>
       </c>
       <c r="D113" t="s">
-        <v>800</v>
+        <v>708</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -15682,10 +15646,10 @@
         <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>687</v>
+        <v>595</v>
       </c>
       <c r="D114" t="s">
-        <v>801</v>
+        <v>709</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -15696,10 +15660,10 @@
         <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>688</v>
+        <v>596</v>
       </c>
       <c r="D115" t="s">
-        <v>802</v>
+        <v>710</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -15710,10 +15674,10 @@
         <v>98</v>
       </c>
       <c r="C116" t="s">
-        <v>689</v>
+        <v>597</v>
       </c>
       <c r="D116" t="s">
-        <v>803</v>
+        <v>711</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -15724,10 +15688,10 @@
         <v>98</v>
       </c>
       <c r="C117" t="s">
-        <v>690</v>
+        <v>598</v>
       </c>
       <c r="D117" t="s">
-        <v>804</v>
+        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -15738,10 +15702,10 @@
         <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>691</v>
+        <v>599</v>
       </c>
       <c r="D118" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -15752,10 +15716,10 @@
         <v>98</v>
       </c>
       <c r="C119" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="D119" t="s">
-        <v>806</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -15766,10 +15730,10 @@
         <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="D120" t="s">
-        <v>791</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -15780,10 +15744,10 @@
         <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="D121" t="s">
-        <v>807</v>
+        <v>715</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -15794,10 +15758,10 @@
         <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>695</v>
+        <v>603</v>
       </c>
       <c r="D122" t="s">
-        <v>792</v>
+        <v>700</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -15808,10 +15772,10 @@
         <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>696</v>
+        <v>604</v>
       </c>
       <c r="D123" t="s">
-        <v>793</v>
+        <v>701</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -15822,10 +15786,10 @@
         <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="D124" t="s">
-        <v>794</v>
+        <v>702</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -15836,10 +15800,10 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="D125" t="s">
-        <v>796</v>
+        <v>704</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -15850,10 +15814,10 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>699</v>
+        <v>607</v>
       </c>
       <c r="D126" t="s">
-        <v>797</v>
+        <v>705</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -15864,10 +15828,10 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="D127" t="s">
-        <v>798</v>
+        <v>706</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -15878,10 +15842,10 @@
         <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="D128" t="s">
-        <v>799</v>
+        <v>707</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -15892,10 +15856,10 @@
         <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
       <c r="D129" t="s">
-        <v>801</v>
+        <v>709</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -15906,10 +15870,10 @@
         <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>703</v>
+        <v>611</v>
       </c>
       <c r="D130" t="s">
-        <v>802</v>
+        <v>710</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -15920,10 +15884,10 @@
         <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
       <c r="D131" t="s">
-        <v>803</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -15934,10 +15898,10 @@
         <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>705</v>
+        <v>613</v>
       </c>
       <c r="D132" t="s">
-        <v>804</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -15948,10 +15912,10 @@
         <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>706</v>
+        <v>614</v>
       </c>
       <c r="D133" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -15962,10 +15926,10 @@
         <v>101</v>
       </c>
       <c r="C134" t="s">
-        <v>707</v>
+        <v>615</v>
       </c>
       <c r="D134" t="s">
-        <v>806</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -15976,10 +15940,10 @@
         <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
       <c r="D135" t="s">
-        <v>808</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -15990,10 +15954,10 @@
         <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>709</v>
+        <v>617</v>
       </c>
       <c r="D136" t="s">
-        <v>714</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -16004,10 +15968,10 @@
         <v>104</v>
       </c>
       <c r="C137" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
       <c r="D137" t="s">
-        <v>715</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -16018,10 +15982,10 @@
         <v>104</v>
       </c>
       <c r="C138" t="s">
-        <v>711</v>
+        <v>619</v>
       </c>
       <c r="D138" t="s">
-        <v>716</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -16032,10 +15996,10 @@
         <v>104</v>
       </c>
       <c r="C139" t="s">
-        <v>712</v>
+        <v>620</v>
       </c>
       <c r="D139" t="s">
-        <v>717</v>
+        <v>625</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -16046,10 +16010,10 @@
         <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>713</v>
+        <v>621</v>
       </c>
       <c r="D140" t="s">
-        <v>718</v>
+        <v>626</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -16060,10 +16024,10 @@
         <v>107</v>
       </c>
       <c r="C141" t="s">
-        <v>719</v>
+        <v>627</v>
       </c>
       <c r="D141" t="s">
-        <v>720</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -16074,10 +16038,10 @@
         <v>107</v>
       </c>
       <c r="C142" t="s">
-        <v>721</v>
+        <v>629</v>
       </c>
       <c r="D142" t="s">
-        <v>722</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -16088,10 +16052,10 @@
         <v>73</v>
       </c>
       <c r="C143" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
       <c r="D143" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -16102,10 +16066,10 @@
         <v>73</v>
       </c>
       <c r="C144" t="s">
-        <v>581</v>
+        <v>489</v>
       </c>
       <c r="D144" t="s">
-        <v>724</v>
+        <v>632</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -16116,10 +16080,10 @@
         <v>73</v>
       </c>
       <c r="C145" t="s">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="D145" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -16130,10 +16094,10 @@
         <v>73</v>
       </c>
       <c r="C146" t="s">
-        <v>593</v>
+        <v>501</v>
       </c>
       <c r="D146" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -16144,10 +16108,10 @@
         <v>73</v>
       </c>
       <c r="C147" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
       <c r="D147" t="s">
-        <v>727</v>
+        <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -16158,10 +16122,10 @@
         <v>73</v>
       </c>
       <c r="C148" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
       <c r="D148" t="s">
-        <v>728</v>
+        <v>636</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -16172,10 +16136,10 @@
         <v>73</v>
       </c>
       <c r="C149" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="D149" t="s">
-        <v>729</v>
+        <v>637</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -16186,10 +16150,10 @@
         <v>73</v>
       </c>
       <c r="C150" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>730</v>
+        <v>638</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -16200,10 +16164,10 @@
         <v>73</v>
       </c>
       <c r="C151" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="D151" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -16214,10 +16178,10 @@
         <v>73</v>
       </c>
       <c r="C152" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="D152" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -16228,10 +16192,10 @@
         <v>73</v>
       </c>
       <c r="C153" t="s">
-        <v>588</v>
+        <v>496</v>
       </c>
       <c r="D153" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -16242,10 +16206,10 @@
         <v>73</v>
       </c>
       <c r="C154" t="s">
-        <v>587</v>
+        <v>495</v>
       </c>
       <c r="D154" t="s">
-        <v>734</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -16256,10 +16220,10 @@
         <v>73</v>
       </c>
       <c r="C155" t="s">
-        <v>584</v>
+        <v>492</v>
       </c>
       <c r="D155" t="s">
-        <v>735</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -16270,10 +16234,10 @@
         <v>73</v>
       </c>
       <c r="C156" t="s">
-        <v>582</v>
+        <v>490</v>
       </c>
       <c r="D156" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -16284,10 +16248,10 @@
         <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>595</v>
+        <v>503</v>
       </c>
       <c r="D157" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -16298,10 +16262,10 @@
         <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>596</v>
+        <v>504</v>
       </c>
       <c r="D158" t="s">
-        <v>724</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -16312,10 +16276,10 @@
         <v>77</v>
       </c>
       <c r="C159" t="s">
-        <v>597</v>
+        <v>505</v>
       </c>
       <c r="D159" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -16326,10 +16290,10 @@
         <v>77</v>
       </c>
       <c r="C160" t="s">
-        <v>598</v>
+        <v>506</v>
       </c>
       <c r="D160" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -16340,10 +16304,10 @@
         <v>77</v>
       </c>
       <c r="C161" t="s">
-        <v>599</v>
+        <v>507</v>
       </c>
       <c r="D161" t="s">
-        <v>727</v>
+        <v>635</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -16354,10 +16318,10 @@
         <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="D162" t="s">
-        <v>728</v>
+        <v>636</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -16368,10 +16332,10 @@
         <v>77</v>
       </c>
       <c r="C163" t="s">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="D163" t="s">
-        <v>729</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -16382,10 +16346,10 @@
         <v>77</v>
       </c>
       <c r="C164" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="D164" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -16396,10 +16360,10 @@
         <v>77</v>
       </c>
       <c r="C165" t="s">
-        <v>603</v>
+        <v>511</v>
       </c>
       <c r="D165" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -16410,10 +16374,10 @@
         <v>77</v>
       </c>
       <c r="C166" t="s">
-        <v>604</v>
+        <v>512</v>
       </c>
       <c r="D166" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -16424,10 +16388,10 @@
         <v>77</v>
       </c>
       <c r="C167" t="s">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="D167" t="s">
-        <v>737</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -16438,10 +16402,10 @@
         <v>77</v>
       </c>
       <c r="C168" t="s">
-        <v>606</v>
+        <v>514</v>
       </c>
       <c r="D168" t="s">
-        <v>738</v>
+        <v>646</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -16452,10 +16416,10 @@
         <v>77</v>
       </c>
       <c r="C169" t="s">
-        <v>607</v>
+        <v>515</v>
       </c>
       <c r="D169" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -16466,10 +16430,10 @@
         <v>80</v>
       </c>
       <c r="C170" t="s">
-        <v>574</v>
+        <v>482</v>
       </c>
       <c r="D170" t="s">
-        <v>739</v>
+        <v>647</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -16480,10 +16444,10 @@
         <v>80</v>
       </c>
       <c r="C171" t="s">
-        <v>578</v>
+        <v>486</v>
       </c>
       <c r="D171" t="s">
-        <v>740</v>
+        <v>648</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -16494,10 +16458,10 @@
         <v>80</v>
       </c>
       <c r="C172" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D172" t="s">
-        <v>741</v>
+        <v>649</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -16508,10 +16472,10 @@
         <v>80</v>
       </c>
       <c r="C173" t="s">
-        <v>577</v>
+        <v>485</v>
       </c>
       <c r="D173" t="s">
-        <v>742</v>
+        <v>650</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -16522,10 +16486,10 @@
         <v>80</v>
       </c>
       <c r="C174" t="s">
-        <v>573</v>
+        <v>481</v>
       </c>
       <c r="D174" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -16536,10 +16500,10 @@
         <v>80</v>
       </c>
       <c r="C175" t="s">
-        <v>575</v>
+        <v>483</v>
       </c>
       <c r="D175" t="s">
-        <v>744</v>
+        <v>652</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -16550,10 +16514,10 @@
         <v>83</v>
       </c>
       <c r="C176" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="D176" t="s">
-        <v>745</v>
+        <v>653</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -16564,10 +16528,10 @@
         <v>83</v>
       </c>
       <c r="C177" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="D177" t="s">
-        <v>746</v>
+        <v>654</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -16578,10 +16542,10 @@
         <v>83</v>
       </c>
       <c r="C178" t="s">
-        <v>610</v>
+        <v>518</v>
       </c>
       <c r="D178" t="s">
-        <v>747</v>
+        <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -16592,10 +16556,10 @@
         <v>83</v>
       </c>
       <c r="C179" t="s">
-        <v>611</v>
+        <v>519</v>
       </c>
       <c r="D179" t="s">
-        <v>748</v>
+        <v>656</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -16606,10 +16570,10 @@
         <v>83</v>
       </c>
       <c r="C180" t="s">
-        <v>612</v>
+        <v>520</v>
       </c>
       <c r="D180" t="s">
-        <v>749</v>
+        <v>657</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -16620,10 +16584,10 @@
         <v>83</v>
       </c>
       <c r="C181" t="s">
-        <v>613</v>
+        <v>521</v>
       </c>
       <c r="D181" t="s">
-        <v>750</v>
+        <v>658</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -16634,10 +16598,10 @@
         <v>83</v>
       </c>
       <c r="C182" t="s">
-        <v>614</v>
+        <v>522</v>
       </c>
       <c r="D182" t="s">
-        <v>751</v>
+        <v>659</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -16648,10 +16612,10 @@
         <v>83</v>
       </c>
       <c r="C183" t="s">
-        <v>615</v>
+        <v>523</v>
       </c>
       <c r="D183" t="s">
-        <v>752</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -16662,10 +16626,10 @@
         <v>83</v>
       </c>
       <c r="C184" t="s">
-        <v>616</v>
+        <v>524</v>
       </c>
       <c r="D184" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -16676,10 +16640,10 @@
         <v>83</v>
       </c>
       <c r="C185" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="D185" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -16690,10 +16654,10 @@
         <v>83</v>
       </c>
       <c r="C186" t="s">
-        <v>618</v>
+        <v>526</v>
       </c>
       <c r="D186" t="s">
-        <v>755</v>
+        <v>663</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -16704,10 +16668,10 @@
         <v>83</v>
       </c>
       <c r="C187" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="D187" t="s">
-        <v>756</v>
+        <v>664</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -16718,10 +16682,10 @@
         <v>83</v>
       </c>
       <c r="C188" t="s">
-        <v>620</v>
+        <v>528</v>
       </c>
       <c r="D188" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -16732,10 +16696,10 @@
         <v>83</v>
       </c>
       <c r="C189" t="s">
-        <v>621</v>
+        <v>529</v>
       </c>
       <c r="D189" t="s">
-        <v>758</v>
+        <v>666</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -16746,10 +16710,10 @@
         <v>83</v>
       </c>
       <c r="C190" t="s">
-        <v>622</v>
+        <v>530</v>
       </c>
       <c r="D190" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -16760,10 +16724,10 @@
         <v>83</v>
       </c>
       <c r="C191" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="D191" t="s">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -16774,10 +16738,10 @@
         <v>83</v>
       </c>
       <c r="C192" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="D192" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -16788,10 +16752,10 @@
         <v>83</v>
       </c>
       <c r="C193" t="s">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="D193" t="s">
-        <v>762</v>
+        <v>670</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -16802,10 +16766,10 @@
         <v>83</v>
       </c>
       <c r="C194" t="s">
-        <v>626</v>
+        <v>534</v>
       </c>
       <c r="D194" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -16816,10 +16780,10 @@
         <v>83</v>
       </c>
       <c r="C195" t="s">
-        <v>627</v>
+        <v>535</v>
       </c>
       <c r="D195" t="s">
-        <v>764</v>
+        <v>672</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -16830,10 +16794,10 @@
         <v>86</v>
       </c>
       <c r="C196" t="s">
-        <v>628</v>
+        <v>536</v>
       </c>
       <c r="D196" t="s">
-        <v>746</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -16844,10 +16808,10 @@
         <v>86</v>
       </c>
       <c r="C197" t="s">
-        <v>629</v>
+        <v>537</v>
       </c>
       <c r="D197" t="s">
-        <v>747</v>
+        <v>655</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -16858,10 +16822,10 @@
         <v>86</v>
       </c>
       <c r="C198" t="s">
-        <v>630</v>
+        <v>538</v>
       </c>
       <c r="D198" t="s">
-        <v>748</v>
+        <v>656</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -16872,10 +16836,10 @@
         <v>86</v>
       </c>
       <c r="C199" t="s">
-        <v>631</v>
+        <v>539</v>
       </c>
       <c r="D199" t="s">
-        <v>749</v>
+        <v>657</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -16886,10 +16850,10 @@
         <v>86</v>
       </c>
       <c r="C200" t="s">
-        <v>632</v>
+        <v>540</v>
       </c>
       <c r="D200" t="s">
-        <v>750</v>
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -16900,10 +16864,10 @@
         <v>86</v>
       </c>
       <c r="C201" t="s">
-        <v>633</v>
+        <v>541</v>
       </c>
       <c r="D201" t="s">
-        <v>751</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -16914,10 +16878,10 @@
         <v>86</v>
       </c>
       <c r="C202" t="s">
-        <v>634</v>
+        <v>542</v>
       </c>
       <c r="D202" t="s">
-        <v>752</v>
+        <v>660</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -16928,10 +16892,10 @@
         <v>86</v>
       </c>
       <c r="C203" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="D203" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -16942,10 +16906,10 @@
         <v>86</v>
       </c>
       <c r="C204" t="s">
-        <v>636</v>
+        <v>544</v>
       </c>
       <c r="D204" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -16956,10 +16920,10 @@
         <v>86</v>
       </c>
       <c r="C205" t="s">
-        <v>637</v>
+        <v>545</v>
       </c>
       <c r="D205" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -16970,10 +16934,10 @@
         <v>86</v>
       </c>
       <c r="C206" t="s">
-        <v>638</v>
+        <v>546</v>
       </c>
       <c r="D206" t="s">
-        <v>758</v>
+        <v>666</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -16984,10 +16948,10 @@
         <v>86</v>
       </c>
       <c r="C207" t="s">
-        <v>639</v>
+        <v>547</v>
       </c>
       <c r="D207" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -16998,10 +16962,10 @@
         <v>86</v>
       </c>
       <c r="C208" t="s">
-        <v>640</v>
+        <v>548</v>
       </c>
       <c r="D208" t="s">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -17012,10 +16976,10 @@
         <v>86</v>
       </c>
       <c r="C209" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D209" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -17026,10 +16990,10 @@
         <v>86</v>
       </c>
       <c r="C210" t="s">
-        <v>642</v>
+        <v>550</v>
       </c>
       <c r="D210" t="s">
-        <v>762</v>
+        <v>670</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -17040,10 +17004,10 @@
         <v>86</v>
       </c>
       <c r="C211" t="s">
-        <v>643</v>
+        <v>551</v>
       </c>
       <c r="D211" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -17054,10 +17018,10 @@
         <v>86</v>
       </c>
       <c r="C212" t="s">
-        <v>644</v>
+        <v>552</v>
       </c>
       <c r="D212" t="s">
-        <v>764</v>
+        <v>672</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -17068,10 +17032,10 @@
         <v>89</v>
       </c>
       <c r="C213" t="s">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="D213" t="s">
-        <v>765</v>
+        <v>673</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -17082,10 +17046,10 @@
         <v>89</v>
       </c>
       <c r="C214" t="s">
-        <v>653</v>
+        <v>561</v>
       </c>
       <c r="D214" t="s">
-        <v>766</v>
+        <v>674</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -17096,10 +17060,10 @@
         <v>89</v>
       </c>
       <c r="C215" t="s">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="D215" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -17110,10 +17074,10 @@
         <v>89</v>
       </c>
       <c r="C216" t="s">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="D216" t="s">
-        <v>768</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -17124,10 +17088,10 @@
         <v>89</v>
       </c>
       <c r="C217" t="s">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="D217" t="s">
-        <v>769</v>
+        <v>677</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -17138,10 +17102,10 @@
         <v>89</v>
       </c>
       <c r="C218" t="s">
-        <v>657</v>
+        <v>565</v>
       </c>
       <c r="D218" t="s">
-        <v>770</v>
+        <v>678</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -17152,10 +17116,10 @@
         <v>89</v>
       </c>
       <c r="C219" t="s">
-        <v>658</v>
+        <v>566</v>
       </c>
       <c r="D219" t="s">
-        <v>771</v>
+        <v>679</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -17166,10 +17130,10 @@
         <v>89</v>
       </c>
       <c r="C220" t="s">
-        <v>659</v>
+        <v>567</v>
       </c>
       <c r="D220" t="s">
-        <v>772</v>
+        <v>680</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -17180,10 +17144,10 @@
         <v>89</v>
       </c>
       <c r="C221" t="s">
-        <v>660</v>
+        <v>568</v>
       </c>
       <c r="D221" t="s">
-        <v>773</v>
+        <v>681</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -17194,10 +17158,10 @@
         <v>89</v>
       </c>
       <c r="C222" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="D222" t="s">
-        <v>774</v>
+        <v>682</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -17208,10 +17172,10 @@
         <v>89</v>
       </c>
       <c r="C223" t="s">
-        <v>647</v>
+        <v>555</v>
       </c>
       <c r="D223" t="s">
-        <v>775</v>
+        <v>683</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -17222,10 +17186,10 @@
         <v>89</v>
       </c>
       <c r="C224" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="D224" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -17236,10 +17200,10 @@
         <v>89</v>
       </c>
       <c r="C225" t="s">
-        <v>649</v>
+        <v>557</v>
       </c>
       <c r="D225" t="s">
-        <v>777</v>
+        <v>685</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -17250,10 +17214,10 @@
         <v>89</v>
       </c>
       <c r="C226" t="s">
-        <v>650</v>
+        <v>558</v>
       </c>
       <c r="D226" t="s">
-        <v>778</v>
+        <v>686</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -17264,10 +17228,10 @@
         <v>89</v>
       </c>
       <c r="C227" t="s">
-        <v>651</v>
+        <v>559</v>
       </c>
       <c r="D227" t="s">
-        <v>779</v>
+        <v>687</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -17278,10 +17242,10 @@
         <v>89</v>
       </c>
       <c r="C228" t="s">
-        <v>652</v>
+        <v>560</v>
       </c>
       <c r="D228" t="s">
-        <v>780</v>
+        <v>688</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -17292,10 +17256,10 @@
         <v>92</v>
       </c>
       <c r="C229" t="s">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D229" t="s">
-        <v>781</v>
+        <v>689</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -17306,10 +17270,10 @@
         <v>92</v>
       </c>
       <c r="C230" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="D230" t="s">
-        <v>782</v>
+        <v>690</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -17320,10 +17284,10 @@
         <v>92</v>
       </c>
       <c r="C231" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="D231" t="s">
-        <v>783</v>
+        <v>691</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -17334,10 +17298,10 @@
         <v>92</v>
       </c>
       <c r="C232" t="s">
-        <v>668</v>
+        <v>576</v>
       </c>
       <c r="D232" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -17348,10 +17312,10 @@
         <v>92</v>
       </c>
       <c r="C233" t="s">
-        <v>669</v>
+        <v>577</v>
       </c>
       <c r="D233" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -17362,10 +17326,10 @@
         <v>92</v>
       </c>
       <c r="C234" t="s">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="D234" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -17376,10 +17340,10 @@
         <v>92</v>
       </c>
       <c r="C235" t="s">
-        <v>662</v>
+        <v>570</v>
       </c>
       <c r="D235" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -17390,10 +17354,10 @@
         <v>92</v>
       </c>
       <c r="C236" t="s">
-        <v>663</v>
+        <v>571</v>
       </c>
       <c r="D236" t="s">
-        <v>788</v>
+        <v>696</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -17404,10 +17368,10 @@
         <v>92</v>
       </c>
       <c r="C237" t="s">
-        <v>664</v>
+        <v>572</v>
       </c>
       <c r="D237" t="s">
-        <v>789</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -17418,10 +17382,10 @@
         <v>95</v>
       </c>
       <c r="C238" t="s">
-        <v>673</v>
+        <v>581</v>
       </c>
       <c r="D238" t="s">
-        <v>781</v>
+        <v>689</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -17432,10 +17396,10 @@
         <v>95</v>
       </c>
       <c r="C239" t="s">
-        <v>674</v>
+        <v>582</v>
       </c>
       <c r="D239" t="s">
-        <v>782</v>
+        <v>690</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -17446,10 +17410,10 @@
         <v>95</v>
       </c>
       <c r="C240" t="s">
-        <v>675</v>
+        <v>583</v>
       </c>
       <c r="D240" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -17460,10 +17424,10 @@
         <v>95</v>
       </c>
       <c r="C241" t="s">
-        <v>676</v>
+        <v>584</v>
       </c>
       <c r="D241" t="s">
-        <v>790</v>
+        <v>698</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -17474,10 +17438,10 @@
         <v>95</v>
       </c>
       <c r="C242" t="s">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="D242" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -17488,10 +17452,10 @@
         <v>95</v>
       </c>
       <c r="C243" t="s">
-        <v>671</v>
+        <v>579</v>
       </c>
       <c r="D243" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -17502,10 +17466,10 @@
         <v>95</v>
       </c>
       <c r="C244" t="s">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="D244" t="s">
-        <v>789</v>
+        <v>697</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -17516,10 +17480,10 @@
         <v>98</v>
       </c>
       <c r="C245" t="s">
-        <v>677</v>
+        <v>585</v>
       </c>
       <c r="D245" t="s">
-        <v>791</v>
+        <v>699</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -17530,10 +17494,10 @@
         <v>98</v>
       </c>
       <c r="C246" t="s">
-        <v>678</v>
+        <v>586</v>
       </c>
       <c r="D246" t="s">
-        <v>792</v>
+        <v>700</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -17544,10 +17508,10 @@
         <v>98</v>
       </c>
       <c r="C247" t="s">
-        <v>679</v>
+        <v>587</v>
       </c>
       <c r="D247" t="s">
-        <v>793</v>
+        <v>701</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -17558,10 +17522,10 @@
         <v>98</v>
       </c>
       <c r="C248" t="s">
-        <v>680</v>
+        <v>588</v>
       </c>
       <c r="D248" t="s">
-        <v>794</v>
+        <v>702</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -17572,10 +17536,10 @@
         <v>98</v>
       </c>
       <c r="C249" t="s">
-        <v>681</v>
+        <v>589</v>
       </c>
       <c r="D249" t="s">
-        <v>795</v>
+        <v>703</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -17586,10 +17550,10 @@
         <v>98</v>
       </c>
       <c r="C250" t="s">
-        <v>682</v>
+        <v>590</v>
       </c>
       <c r="D250" t="s">
-        <v>796</v>
+        <v>704</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -17600,10 +17564,10 @@
         <v>98</v>
       </c>
       <c r="C251" t="s">
-        <v>683</v>
+        <v>591</v>
       </c>
       <c r="D251" t="s">
-        <v>797</v>
+        <v>705</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -17614,10 +17578,10 @@
         <v>98</v>
       </c>
       <c r="C252" t="s">
-        <v>684</v>
+        <v>592</v>
       </c>
       <c r="D252" t="s">
-        <v>798</v>
+        <v>706</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -17628,10 +17592,10 @@
         <v>98</v>
       </c>
       <c r="C253" t="s">
-        <v>685</v>
+        <v>593</v>
       </c>
       <c r="D253" t="s">
-        <v>799</v>
+        <v>707</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -17642,10 +17606,10 @@
         <v>98</v>
       </c>
       <c r="C254" t="s">
-        <v>686</v>
+        <v>594</v>
       </c>
       <c r="D254" t="s">
-        <v>800</v>
+        <v>708</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -17656,10 +17620,10 @@
         <v>98</v>
       </c>
       <c r="C255" t="s">
-        <v>687</v>
+        <v>595</v>
       </c>
       <c r="D255" t="s">
-        <v>801</v>
+        <v>709</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -17670,10 +17634,10 @@
         <v>98</v>
       </c>
       <c r="C256" t="s">
-        <v>688</v>
+        <v>596</v>
       </c>
       <c r="D256" t="s">
-        <v>802</v>
+        <v>710</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -17684,10 +17648,10 @@
         <v>98</v>
       </c>
       <c r="C257" t="s">
-        <v>689</v>
+        <v>597</v>
       </c>
       <c r="D257" t="s">
-        <v>803</v>
+        <v>711</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -17698,10 +17662,10 @@
         <v>98</v>
       </c>
       <c r="C258" t="s">
-        <v>690</v>
+        <v>598</v>
       </c>
       <c r="D258" t="s">
-        <v>804</v>
+        <v>712</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -17712,10 +17676,10 @@
         <v>98</v>
       </c>
       <c r="C259" t="s">
-        <v>691</v>
+        <v>599</v>
       </c>
       <c r="D259" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -17726,10 +17690,10 @@
         <v>98</v>
       </c>
       <c r="C260" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="D260" t="s">
-        <v>806</v>
+        <v>714</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -17740,10 +17704,10 @@
         <v>101</v>
       </c>
       <c r="C261" t="s">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="D261" t="s">
-        <v>791</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -17754,10 +17718,10 @@
         <v>101</v>
       </c>
       <c r="C262" t="s">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="D262" t="s">
-        <v>807</v>
+        <v>715</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -17768,10 +17732,10 @@
         <v>101</v>
       </c>
       <c r="C263" t="s">
-        <v>695</v>
+        <v>603</v>
       </c>
       <c r="D263" t="s">
-        <v>792</v>
+        <v>700</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -17782,10 +17746,10 @@
         <v>101</v>
       </c>
       <c r="C264" t="s">
-        <v>696</v>
+        <v>604</v>
       </c>
       <c r="D264" t="s">
-        <v>793</v>
+        <v>701</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -17796,10 +17760,10 @@
         <v>101</v>
       </c>
       <c r="C265" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="D265" t="s">
-        <v>794</v>
+        <v>702</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -17810,10 +17774,10 @@
         <v>101</v>
       </c>
       <c r="C266" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="D266" t="s">
-        <v>796</v>
+        <v>704</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -17824,10 +17788,10 @@
         <v>101</v>
       </c>
       <c r="C267" t="s">
-        <v>699</v>
+        <v>607</v>
       </c>
       <c r="D267" t="s">
-        <v>797</v>
+        <v>705</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -17838,10 +17802,10 @@
         <v>101</v>
       </c>
       <c r="C268" t="s">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="D268" t="s">
-        <v>798</v>
+        <v>706</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -17852,10 +17816,10 @@
         <v>101</v>
       </c>
       <c r="C269" t="s">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="D269" t="s">
-        <v>799</v>
+        <v>707</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -17866,10 +17830,10 @@
         <v>101</v>
       </c>
       <c r="C270" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
       <c r="D270" t="s">
-        <v>801</v>
+        <v>709</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -17880,10 +17844,10 @@
         <v>101</v>
       </c>
       <c r="C271" t="s">
-        <v>703</v>
+        <v>611</v>
       </c>
       <c r="D271" t="s">
-        <v>802</v>
+        <v>710</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -17894,10 +17858,10 @@
         <v>101</v>
       </c>
       <c r="C272" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
       <c r="D272" t="s">
-        <v>803</v>
+        <v>711</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -17908,10 +17872,10 @@
         <v>101</v>
       </c>
       <c r="C273" t="s">
-        <v>705</v>
+        <v>613</v>
       </c>
       <c r="D273" t="s">
-        <v>804</v>
+        <v>712</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -17922,10 +17886,10 @@
         <v>101</v>
       </c>
       <c r="C274" t="s">
-        <v>706</v>
+        <v>614</v>
       </c>
       <c r="D274" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -17936,10 +17900,10 @@
         <v>101</v>
       </c>
       <c r="C275" t="s">
-        <v>707</v>
+        <v>615</v>
       </c>
       <c r="D275" t="s">
-        <v>806</v>
+        <v>714</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -17950,10 +17914,10 @@
         <v>101</v>
       </c>
       <c r="C276" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
       <c r="D276" t="s">
-        <v>808</v>
+        <v>716</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -17964,10 +17928,10 @@
         <v>104</v>
       </c>
       <c r="C277" t="s">
-        <v>709</v>
+        <v>617</v>
       </c>
       <c r="D277" t="s">
-        <v>714</v>
+        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -17978,10 +17942,10 @@
         <v>104</v>
       </c>
       <c r="C278" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
       <c r="D278" t="s">
-        <v>715</v>
+        <v>623</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -17992,10 +17956,10 @@
         <v>104</v>
       </c>
       <c r="C279" t="s">
-        <v>711</v>
+        <v>619</v>
       </c>
       <c r="D279" t="s">
-        <v>716</v>
+        <v>624</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -18006,10 +17970,10 @@
         <v>104</v>
       </c>
       <c r="C280" t="s">
-        <v>712</v>
+        <v>620</v>
       </c>
       <c r="D280" t="s">
-        <v>717</v>
+        <v>625</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -18020,10 +17984,10 @@
         <v>104</v>
       </c>
       <c r="C281" t="s">
-        <v>713</v>
+        <v>621</v>
       </c>
       <c r="D281" t="s">
-        <v>718</v>
+        <v>626</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -18034,10 +17998,10 @@
         <v>107</v>
       </c>
       <c r="C282" t="s">
-        <v>719</v>
+        <v>627</v>
       </c>
       <c r="D282" t="s">
-        <v>720</v>
+        <v>628</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -18048,10 +18012,10 @@
         <v>107</v>
       </c>
       <c r="C283" t="s">
-        <v>721</v>
+        <v>629</v>
       </c>
       <c r="D283" t="s">
-        <v>722</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
